--- a/doc/frequency.xlsx
+++ b/doc/frequency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGRAMS\MSYS64\home\hyf\rsync-log-analyzer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D39F1-CCE3-472F-B298-18A963DE29BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEA85B-07D0-4582-966A-6E81F4DC74D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" activeTab="2" xr2:uid="{B3559C3C-14DE-4E87-9ECA-6507E27D6041}"/>
   </bookViews>
@@ -197,23 +197,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -227,6 +215,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3546,7 +3543,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3909,7 +3905,7 @@
                 <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
                 <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               </a:rPr>
-              <a:t>文件夹同步时间及其频数</a:t>
+              <a:t>文件同步时间及其频数</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7310,5976 +7306,5985 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC40153-9979-47C6-8F79-9A04AAFD4D7A}">
-  <dimension ref="B1:H450"/>
+  <dimension ref="B1:H451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="5"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="5"/>
-      <c r="H1"/>
+      <c r="C1"/>
     </row>
     <row r="2" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>3347578</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <f>LN(C4)</f>
         <v>15.023747657246876</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>37218788</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <f>LN(G4)</f>
         <v>17.432324245510092</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
         <v>88965</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D68" si="0">LN(C5)</f>
         <v>11.395998312940936</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>40513</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H68" si="1">LN(G5)</f>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H59" si="1">LN(G5)</f>
         <v>10.609378189243436</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>7010</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>8.8550929800286351</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>1191</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>7.0825485693552999</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>3060</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>8.0261701949464257</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>310</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>5.7365722974791922</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>1725</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>7.4529823294654598</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>167</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>5.1179938124167554</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>1066</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>6.9716686047257896</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>124</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>4.8202815656050371</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>731</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>6.5944134597497781</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>147</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>4.990432586778736</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>588</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>6.3767269478986268</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>7</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>193</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>5.2626901889048856</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>510</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>6.2344107257183712</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>223</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>5.4071717714601188</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>384</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>5.9506425525877269</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>231</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>5.4424177105217932</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>289</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>5.6664266881124323</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>188</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>5.2364419628299492</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>233</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>5.4510384535657002</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>167</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>5.1179938124167554</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>221</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>5.3981627015177525</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>12</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <v>107</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>4.6728288344619058</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>171</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>5.1416635565026603</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>13</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>67</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
         <v>4.2046926193909657</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>145</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>4.9767337424205742</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>14</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>56</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
         <v>4.0253516907351496</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>145</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>4.9767337424205742</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>15</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>51</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
         <v>3.9318256327243257</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>125</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>4.8283137373023015</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>16</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>34</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
         <v>3.5263605246161616</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <v>113</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>4.7273878187123408</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>17</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>34</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="4">
         <f t="shared" si="1"/>
         <v>3.5263605246161616</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <v>80</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>4.3820266346738812</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>18</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <v>29</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="4">
         <f t="shared" si="1"/>
         <v>3.3672958299864741</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="4">
         <v>94</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>4.5432947822700038</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>19</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>107</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <f t="shared" si="1"/>
         <v>4.6728288344619058</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>94</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>4.5432947822700038</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>20</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>13</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="4">
         <f t="shared" si="1"/>
         <v>2.5649493574615367</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="4">
         <v>70</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>4.2484952420493594</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>21</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>13</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="4">
         <f t="shared" si="1"/>
         <v>2.5649493574615367</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="4">
         <v>62</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>4.1271343850450917</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>22</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <v>11</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="4">
         <f t="shared" si="1"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="4">
         <v>69</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>4.2341065045972597</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <v>23</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4">
         <v>15</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="4">
         <f t="shared" si="1"/>
         <v>2.7080502011022101</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="4">
         <v>44</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>3.784189633918261</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>24</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>8</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="4">
         <f t="shared" si="1"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="4">
         <v>53</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>3.970291913552122</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>25</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>7</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="4">
         <f t="shared" si="1"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="4">
         <v>57</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>4.0430512678345503</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>26</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="4">
         <f t="shared" si="1"/>
         <v>1.791759469228055</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="4">
         <v>52</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>3.9512437185814275</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>28</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <v>9</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="4">
         <f t="shared" si="1"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>60</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>4.0943445622221004</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>29</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>3</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="4">
         <f t="shared" si="1"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="4">
         <v>59</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>4.0775374439057197</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>33</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <v>2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="4">
         <v>46</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>3.8286413964890951</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <v>34</v>
       </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="4">
         <v>31</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="4">
         <v>36</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>3.5835189384561099</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <v>35</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="4">
         <v>4</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="4">
         <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="B36" s="4">
         <v>32</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="4">
         <v>48</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>3.8712010109078911</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <v>36</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="4">
         <v>12</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="4">
         <f t="shared" si="1"/>
         <v>2.4849066497880004</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="4">
         <v>33</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="4">
         <v>39</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>3.6635616461296463</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>37</v>
       </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="B38" s="4">
         <v>34</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="4">
         <v>33</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>3.4965075614664802</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>38</v>
       </c>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="4">
         <v>35</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="4">
         <v>29</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>3.3672958299864741</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="4">
         <v>39</v>
       </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="B40" s="4">
         <v>36</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="4">
         <v>34</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>3.5263605246161616</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="4">
         <v>40</v>
       </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="4">
         <v>37</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="4">
         <v>30</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <v>41</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="4">
         <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="4">
         <v>38</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="4">
         <v>43</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>3.7612001156935624</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="4">
         <v>42</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="4">
         <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="B43" s="4">
         <v>39</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="4">
         <v>22</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>3.0910424533583161</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="4">
         <v>44</v>
       </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8">
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+      <c r="B44" s="4">
         <v>40</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="4">
         <v>22</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>3.0910424533583161</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <v>46</v>
       </c>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+      <c r="B45" s="4">
         <v>41</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="4">
         <v>30</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>51</v>
       </c>
-      <c r="G45" s="8">
-        <v>1</v>
-      </c>
-      <c r="H45" s="8">
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+      <c r="B46" s="4">
         <v>42</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="4">
         <v>16</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="4">
         <f t="shared" si="0"/>
         <v>2.7725887222397811</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="4">
         <v>52</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="4">
         <v>2</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="4">
         <f t="shared" si="1"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+      <c r="B47" s="4">
         <v>43</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="4">
         <v>31</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="4">
         <f t="shared" si="0"/>
         <v>3.4339872044851463</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="4">
         <v>55</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="4">
         <v>3</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="4">
         <f t="shared" si="1"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+      <c r="B48" s="4">
         <v>44</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="4">
         <v>24</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>3.1780538303479458</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="4">
         <v>56</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="4">
         <v>4</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="4">
         <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="B49" s="4">
         <v>45</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="4">
         <v>19</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="4">
         <f t="shared" si="0"/>
         <v>2.9444389791664403</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
         <v>58</v>
       </c>
-      <c r="G49" s="8">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8">
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="B50" s="4">
         <v>46</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="4">
         <v>15</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="4">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="4">
         <v>61</v>
       </c>
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8">
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+      <c r="B51" s="4">
         <v>47</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="4">
         <v>15</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="4">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="4">
         <v>73</v>
       </c>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="B52" s="4">
         <v>48</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="4">
         <v>9</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="4">
         <f t="shared" si="0"/>
         <v>2.1972245773362196</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="4">
         <v>96</v>
       </c>
-      <c r="G52" s="8">
-        <v>1</v>
-      </c>
-      <c r="H52" s="8">
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+      <c r="B53" s="4">
         <v>49</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="4">
         <v>14</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="4">
         <f t="shared" si="0"/>
         <v>2.6390573296152584</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="4">
         <v>101</v>
       </c>
-      <c r="G53" s="8">
-        <v>1</v>
-      </c>
-      <c r="H53" s="8">
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+      <c r="B54" s="4">
         <v>50</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="4">
         <v>15</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="4">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="4">
         <v>144</v>
       </c>
-      <c r="G54" s="8">
-        <v>1</v>
-      </c>
-      <c r="H54" s="8">
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="B55" s="4">
         <v>51</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="4">
         <v>18</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="4">
         <f t="shared" si="0"/>
         <v>2.8903717578961645</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="4">
         <v>146</v>
       </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8">
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+      <c r="B56" s="4">
         <v>52</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="4">
         <v>20</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="4">
         <f t="shared" si="0"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="4">
         <v>157</v>
       </c>
-      <c r="G56" s="8">
-        <v>1</v>
-      </c>
-      <c r="H56" s="8">
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+      <c r="B57" s="4">
         <v>53</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="4">
         <v>13</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="4">
         <f t="shared" si="0"/>
         <v>2.5649493574615367</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="4">
         <v>226</v>
       </c>
-      <c r="G57" s="8">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8">
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+      <c r="B58" s="4">
         <v>54</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="4">
         <v>6</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="4">
         <f t="shared" si="0"/>
         <v>1.791759469228055</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="4">
         <v>1545</v>
       </c>
-      <c r="G58" s="8">
-        <v>1</v>
-      </c>
-      <c r="H58" s="8">
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8">
+      <c r="B59" s="4">
         <v>55</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="4">
         <v>7</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="4">
         <f t="shared" si="0"/>
         <v>1.9459101490553132</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="5">
         <v>1558</v>
       </c>
-      <c r="G59" s="9">
-        <v>1</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+      <c r="B60" s="4">
         <v>56</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="4">
         <f t="shared" si="0"/>
         <v>1.3862943611198906</v>
       </c>
+      <c r="G60">
+        <f>SUM(G4:G59)</f>
+        <v>37262862</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+      <c r="B61" s="4">
         <v>57</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="4">
         <v>16</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>2.7725887222397811</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+      <c r="B62" s="4">
         <v>58</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="4">
         <v>14</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="4">
         <f t="shared" si="0"/>
         <v>2.6390573296152584</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+      <c r="B63" s="4">
         <v>59</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="4">
         <v>11</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="4">
         <f t="shared" si="0"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+      <c r="B64" s="4">
         <v>60</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="4">
         <v>9</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="4">
         <f t="shared" si="0"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+      <c r="B65" s="4">
         <v>61</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="4">
         <v>17</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="4">
         <f t="shared" si="0"/>
         <v>2.8332133440562162</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+      <c r="B66" s="4">
         <v>62</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="4">
         <v>16</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="4">
         <f t="shared" si="0"/>
         <v>2.7725887222397811</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+      <c r="B67" s="4">
         <v>63</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="4">
         <v>29</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="4">
         <f t="shared" si="0"/>
         <v>3.3672958299864741</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+      <c r="B68" s="4">
         <v>64</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="4">
         <v>12</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="4">
         <f t="shared" si="0"/>
         <v>2.4849066497880004</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+      <c r="B69" s="4">
         <v>65</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="4">
         <v>12</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="4">
         <f t="shared" ref="D69:D132" si="2">LN(C69)</f>
         <v>2.4849066497880004</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+      <c r="B70" s="4">
         <v>66</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="4">
         <v>11</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="4">
         <f t="shared" si="2"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+      <c r="B71" s="4">
         <v>67</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="4">
         <v>7</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+      <c r="B72" s="4">
         <v>68</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="4">
         <v>13</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="4">
         <f t="shared" si="2"/>
         <v>2.5649493574615367</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
+      <c r="B73" s="4">
         <v>69</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="4">
         <v>12</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="4">
         <f t="shared" si="2"/>
         <v>2.4849066497880004</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
+      <c r="B74" s="4">
         <v>70</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="4">
         <v>6</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="4">
         <f t="shared" si="2"/>
         <v>1.791759469228055</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
+      <c r="B75" s="4">
         <v>71</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="4">
         <v>7</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
+      <c r="B76" s="4">
         <v>72</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="4">
         <v>10</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
+      <c r="B77" s="4">
         <v>73</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="4">
         <v>8</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="4">
         <f t="shared" si="2"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
+      <c r="B78" s="4">
         <v>74</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="4">
         <v>11</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="4">
         <f t="shared" si="2"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+      <c r="B79" s="4">
         <v>75</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="4">
         <v>9</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="4">
         <f t="shared" si="2"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+      <c r="B80" s="4">
         <v>76</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="4">
         <v>7</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+      <c r="B81" s="4">
         <v>77</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="4">
         <v>11</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="4">
         <f t="shared" si="2"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
+      <c r="B82" s="4">
         <v>78</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="4">
         <v>5</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
+      <c r="B83" s="4">
         <v>79</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="4">
         <v>10</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="8">
+      <c r="B84" s="4">
         <v>80</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="4">
         <v>5</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
+      <c r="B85" s="4">
         <v>81</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="4">
         <v>8</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="4">
         <f t="shared" si="2"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
+      <c r="B86" s="4">
         <v>82</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="4">
         <v>9</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="4">
         <f t="shared" si="2"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
+      <c r="B87" s="4">
         <v>83</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="4">
         <v>6</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="4">
         <f t="shared" si="2"/>
         <v>1.791759469228055</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
+      <c r="B88" s="4">
         <v>84</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="4">
         <v>7</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
+      <c r="B89" s="4">
         <v>85</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="4">
         <v>7</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="8">
+      <c r="B90" s="4">
         <v>86</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="4">
         <v>10</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="8">
+      <c r="B91" s="4">
         <v>87</v>
       </c>
-      <c r="C91" s="8">
-        <v>1</v>
-      </c>
-      <c r="D91" s="8">
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="8">
+      <c r="B92" s="4">
         <v>88</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="4">
         <v>10</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="8">
+      <c r="B93" s="4">
         <v>89</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="4">
         <v>6</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="4">
         <f t="shared" si="2"/>
         <v>1.791759469228055</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
+      <c r="B94" s="4">
         <v>90</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="4">
         <v>9</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="4">
         <f t="shared" si="2"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
+      <c r="B95" s="4">
         <v>91</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="4">
         <v>2</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="8">
+      <c r="B96" s="4">
         <v>92</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="4">
         <v>10</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
+      <c r="B97" s="4">
         <v>93</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="4">
         <v>5</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="8">
+      <c r="B98" s="4">
         <v>94</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="4">
         <v>9</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="4">
         <f t="shared" si="2"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="8">
+      <c r="B99" s="4">
         <v>95</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="4">
         <v>3</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="4">
         <f t="shared" si="2"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
+      <c r="B100" s="4">
         <v>96</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="4">
         <v>8</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="4">
         <f t="shared" si="2"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
+      <c r="B101" s="4">
         <v>97</v>
       </c>
-      <c r="C101" s="8">
-        <v>1</v>
-      </c>
-      <c r="D101" s="8">
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
+      <c r="B102" s="4">
         <v>98</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="4">
         <v>5</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
+      <c r="B103" s="4">
         <v>99</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="4">
         <v>5</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
+      <c r="B104" s="4">
         <v>100</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="4">
         <v>5</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="8">
+      <c r="B105" s="4">
         <v>101</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="4">
         <v>5</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
+      <c r="B106" s="4">
         <v>102</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="4">
         <v>4</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="8">
+      <c r="B107" s="4">
         <v>103</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="4">
         <v>10</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="8">
+      <c r="B108" s="4">
         <v>104</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="4">
         <v>4</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="8">
+      <c r="B109" s="4">
         <v>105</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="4">
         <v>3</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="4">
         <f t="shared" si="2"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="8">
+      <c r="B110" s="4">
         <v>106</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="4">
         <v>5</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="8">
+      <c r="B111" s="4">
         <v>107</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="4">
         <v>2</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="8">
+      <c r="B112" s="4">
         <v>108</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="4">
         <v>3</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="4">
         <f t="shared" si="2"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="8">
+      <c r="B113" s="4">
         <v>109</v>
       </c>
-      <c r="C113" s="8">
-        <v>1</v>
-      </c>
-      <c r="D113" s="8">
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="8">
+      <c r="B114" s="4">
         <v>110</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="4">
         <v>8</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="4">
         <f t="shared" si="2"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="8">
+      <c r="B115" s="4">
         <v>111</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="4">
         <v>4</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="8">
+      <c r="B116" s="4">
         <v>112</v>
       </c>
-      <c r="C116" s="8">
-        <v>1</v>
-      </c>
-      <c r="D116" s="8">
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="8">
+      <c r="B117" s="4">
         <v>113</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="4">
         <v>2</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="8">
+      <c r="B118" s="4">
         <v>114</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="4">
         <v>5</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="8">
+      <c r="B119" s="4">
         <v>115</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="4">
         <v>4</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="8">
+      <c r="B120" s="4">
         <v>116</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="4">
         <v>2</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="8">
+      <c r="B121" s="4">
         <v>118</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="4">
         <v>3</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="4">
         <f t="shared" si="2"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="8">
+      <c r="B122" s="4">
         <v>120</v>
       </c>
-      <c r="C122" s="8">
-        <v>1</v>
-      </c>
-      <c r="D122" s="8">
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="8">
+      <c r="B123" s="4">
         <v>121</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="4">
         <v>4</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="8">
+      <c r="B124" s="4">
         <v>122</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="4">
         <v>2</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="8">
+      <c r="B125" s="4">
         <v>123</v>
       </c>
-      <c r="C125" s="8">
-        <v>1</v>
-      </c>
-      <c r="D125" s="8">
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="8">
+      <c r="B126" s="4">
         <v>124</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="4">
         <v>7</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="4">
         <f t="shared" si="2"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="8">
+      <c r="B127" s="4">
         <v>125</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="4">
         <v>5</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="4">
         <f t="shared" si="2"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="8">
+      <c r="B128" s="4">
         <v>126</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="4">
         <v>4</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="4">
         <f t="shared" si="2"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="8">
+      <c r="B129" s="4">
         <v>127</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="4">
         <v>10</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="4">
         <f t="shared" si="2"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="8">
+      <c r="B130" s="4">
         <v>128</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="4">
         <v>2</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="8">
+      <c r="B131" s="4">
         <v>129</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="4">
         <v>2</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="4">
         <f t="shared" si="2"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="8">
+      <c r="B132" s="4">
         <v>130</v>
       </c>
-      <c r="C132" s="8">
-        <v>1</v>
-      </c>
-      <c r="D132" s="8">
+      <c r="C132" s="4">
+        <v>1</v>
+      </c>
+      <c r="D132" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="8">
+      <c r="B133" s="4">
         <v>131</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="4">
         <v>2</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="4">
         <f t="shared" ref="D133:D196" si="3">LN(C133)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="8">
+      <c r="B134" s="4">
         <v>132</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="4">
         <v>3</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="8">
+      <c r="B135" s="4">
         <v>133</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="4">
         <v>3</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="8">
+      <c r="B136" s="4">
         <v>134</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="4">
         <v>3</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="8">
+      <c r="B137" s="4">
         <v>135</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="4">
         <v>7</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="4">
         <f t="shared" si="3"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="8">
+      <c r="B138" s="4">
         <v>136</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="4">
         <v>4</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="8">
+      <c r="B139" s="4">
         <v>137</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="4">
         <v>2</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="8">
+      <c r="B140" s="4">
         <v>138</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="4">
         <v>2</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="8">
+      <c r="B141" s="4">
         <v>139</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="4">
         <v>2</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="8">
+      <c r="B142" s="4">
         <v>140</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="4">
         <v>2</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="8">
+      <c r="B143" s="4">
         <v>142</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="4">
         <v>2</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="8">
+      <c r="B144" s="4">
         <v>143</v>
       </c>
-      <c r="C144" s="8">
-        <v>1</v>
-      </c>
-      <c r="D144" s="8">
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
+      <c r="D144" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="8">
+      <c r="B145" s="4">
         <v>144</v>
       </c>
-      <c r="C145" s="8">
-        <v>1</v>
-      </c>
-      <c r="D145" s="8">
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="8">
+      <c r="B146" s="4">
         <v>146</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="4">
         <v>3</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="8">
+      <c r="B147" s="4">
         <v>147</v>
       </c>
-      <c r="C147" s="8">
-        <v>1</v>
-      </c>
-      <c r="D147" s="8">
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+      <c r="D147" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="8">
+      <c r="B148" s="4">
         <v>148</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="4">
         <v>5</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="4">
         <f t="shared" si="3"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="8">
+      <c r="B149" s="4">
         <v>149</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="4">
         <v>2</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="8">
+      <c r="B150" s="4">
         <v>150</v>
       </c>
-      <c r="C150" s="8">
-        <v>1</v>
-      </c>
-      <c r="D150" s="8">
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="8">
+      <c r="B151" s="4">
         <v>151</v>
       </c>
-      <c r="C151" s="8">
-        <v>1</v>
-      </c>
-      <c r="D151" s="8">
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="8">
+      <c r="B152" s="4">
         <v>152</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="4">
         <v>2</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="8">
+      <c r="B153" s="4">
         <v>153</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="4">
         <v>3</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="8">
+      <c r="B154" s="4">
         <v>154</v>
       </c>
-      <c r="C154" s="8">
-        <v>1</v>
-      </c>
-      <c r="D154" s="8">
+      <c r="C154" s="4">
+        <v>1</v>
+      </c>
+      <c r="D154" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="8">
+      <c r="B155" s="4">
         <v>156</v>
       </c>
-      <c r="C155" s="8">
-        <v>1</v>
-      </c>
-      <c r="D155" s="8">
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="D155" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="8">
+      <c r="B156" s="4">
         <v>157</v>
       </c>
-      <c r="C156" s="8">
-        <v>1</v>
-      </c>
-      <c r="D156" s="8">
+      <c r="C156" s="4">
+        <v>1</v>
+      </c>
+      <c r="D156" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="8">
+      <c r="B157" s="4">
         <v>158</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="4">
         <v>4</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="8">
+      <c r="B158" s="4">
         <v>159</v>
       </c>
-      <c r="C158" s="8">
-        <v>1</v>
-      </c>
-      <c r="D158" s="8">
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="8">
+      <c r="B159" s="4">
         <v>160</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="4">
         <v>2</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="8">
+      <c r="B160" s="4">
         <v>161</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="4">
         <v>2</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="8">
+      <c r="B161" s="4">
         <v>162</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="4">
         <v>3</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="8">
+      <c r="B162" s="4">
         <v>163</v>
       </c>
-      <c r="C162" s="8">
-        <v>1</v>
-      </c>
-      <c r="D162" s="8">
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="8">
+      <c r="B163" s="4">
         <v>165</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="4">
         <v>2</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="8">
+      <c r="B164" s="4">
         <v>167</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="4">
         <v>2</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="8">
+      <c r="B165" s="4">
         <v>168</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="4">
         <v>2</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="8">
+      <c r="B166" s="4">
         <v>173</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="4">
         <v>4</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="8">
+      <c r="B167" s="4">
         <v>174</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="4">
         <v>3</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="8">
+      <c r="B168" s="4">
         <v>175</v>
       </c>
-      <c r="C168" s="8">
-        <v>1</v>
-      </c>
-      <c r="D168" s="8">
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="8">
+      <c r="B169" s="4">
         <v>176</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="4">
         <v>2</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D169" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="8">
+      <c r="B170" s="4">
         <v>177</v>
       </c>
-      <c r="C170" s="8">
-        <v>1</v>
-      </c>
-      <c r="D170" s="8">
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="D170" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="8">
+      <c r="B171" s="4">
         <v>178</v>
       </c>
-      <c r="C171" s="8">
-        <v>1</v>
-      </c>
-      <c r="D171" s="8">
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="8">
+      <c r="B172" s="4">
         <v>179</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="4">
         <v>4</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="8">
+      <c r="B173" s="4">
         <v>180</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="4">
         <v>3</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="4">
         <f t="shared" si="3"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="8">
+      <c r="B174" s="4">
         <v>181</v>
       </c>
-      <c r="C174" s="8">
-        <v>1</v>
-      </c>
-      <c r="D174" s="8">
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="8">
+      <c r="B175" s="4">
         <v>182</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="4">
         <v>2</v>
       </c>
-      <c r="D175" s="8">
+      <c r="D175" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="8">
+      <c r="B176" s="4">
         <v>184</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="4">
         <v>4</v>
       </c>
-      <c r="D176" s="8">
+      <c r="D176" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="8">
+      <c r="B177" s="4">
         <v>185</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="4">
         <v>4</v>
       </c>
-      <c r="D177" s="8">
+      <c r="D177" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="8">
+      <c r="B178" s="4">
         <v>186</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="4">
         <v>2</v>
       </c>
-      <c r="D178" s="8">
+      <c r="D178" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="8">
+      <c r="B179" s="4">
         <v>187</v>
       </c>
-      <c r="C179" s="8">
-        <v>1</v>
-      </c>
-      <c r="D179" s="8">
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="8">
+      <c r="B180" s="4">
         <v>188</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="4">
         <v>2</v>
       </c>
-      <c r="D180" s="8">
+      <c r="D180" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="8">
+      <c r="B181" s="4">
         <v>191</v>
       </c>
-      <c r="C181" s="8">
-        <v>1</v>
-      </c>
-      <c r="D181" s="8">
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+      <c r="D181" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="8">
+      <c r="B182" s="4">
         <v>192</v>
       </c>
-      <c r="C182" s="8">
-        <v>1</v>
-      </c>
-      <c r="D182" s="8">
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+      <c r="D182" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="8">
+      <c r="B183" s="4">
         <v>193</v>
       </c>
-      <c r="C183" s="8">
-        <v>1</v>
-      </c>
-      <c r="D183" s="8">
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="8">
+      <c r="B184" s="4">
         <v>194</v>
       </c>
-      <c r="C184" s="8">
-        <v>1</v>
-      </c>
-      <c r="D184" s="8">
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="8">
+      <c r="B185" s="4">
         <v>195</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="4">
         <v>4</v>
       </c>
-      <c r="D185" s="8">
+      <c r="D185" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="8">
+      <c r="B186" s="4">
         <v>196</v>
       </c>
-      <c r="C186" s="8">
-        <v>1</v>
-      </c>
-      <c r="D186" s="8">
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="8">
+      <c r="B187" s="4">
         <v>197</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="4">
         <v>8</v>
       </c>
-      <c r="D187" s="8">
+      <c r="D187" s="4">
         <f t="shared" si="3"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="8">
+      <c r="B188" s="4">
         <v>198</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="4">
         <v>10</v>
       </c>
-      <c r="D188" s="8">
+      <c r="D188" s="4">
         <f t="shared" si="3"/>
         <v>2.3025850929940459</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="8">
+      <c r="B189" s="4">
         <v>199</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="4">
         <v>2</v>
       </c>
-      <c r="D189" s="8">
+      <c r="D189" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="8">
+      <c r="B190" s="4">
         <v>200</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="4">
         <v>2</v>
       </c>
-      <c r="D190" s="8">
+      <c r="D190" s="4">
         <f t="shared" si="3"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="8">
+      <c r="B191" s="4">
         <v>201</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="4">
         <v>4</v>
       </c>
-      <c r="D191" s="8">
+      <c r="D191" s="4">
         <f t="shared" si="3"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="8">
+      <c r="B192" s="4">
         <v>202</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="4">
         <v>5</v>
       </c>
-      <c r="D192" s="8">
+      <c r="D192" s="4">
         <f t="shared" si="3"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="8">
+      <c r="B193" s="4">
         <v>203</v>
       </c>
-      <c r="C193" s="8">
-        <v>1</v>
-      </c>
-      <c r="D193" s="8">
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="8">
+      <c r="B194" s="4">
         <v>204</v>
       </c>
-      <c r="C194" s="8">
-        <v>1</v>
-      </c>
-      <c r="D194" s="8">
+      <c r="C194" s="4">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="8">
+      <c r="B195" s="4">
         <v>205</v>
       </c>
-      <c r="C195" s="8">
-        <v>1</v>
-      </c>
-      <c r="D195" s="8">
+      <c r="C195" s="4">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="8">
+      <c r="B196" s="4">
         <v>206</v>
       </c>
-      <c r="C196" s="8">
-        <v>1</v>
-      </c>
-      <c r="D196" s="8">
+      <c r="C196" s="4">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="8">
+      <c r="B197" s="4">
         <v>207</v>
       </c>
-      <c r="C197" s="8">
-        <v>1</v>
-      </c>
-      <c r="D197" s="8">
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4">
         <f t="shared" ref="D197:D260" si="4">LN(C197)</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="8">
+      <c r="B198" s="4">
         <v>208</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="4">
         <v>4</v>
       </c>
-      <c r="D198" s="8">
+      <c r="D198" s="4">
         <f t="shared" si="4"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="8">
+      <c r="B199" s="4">
         <v>209</v>
       </c>
-      <c r="C199" s="8">
-        <v>1</v>
-      </c>
-      <c r="D199" s="8">
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="8">
+      <c r="B200" s="4">
         <v>212</v>
       </c>
-      <c r="C200" s="8">
-        <v>1</v>
-      </c>
-      <c r="D200" s="8">
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="8">
+      <c r="B201" s="4">
         <v>215</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="4">
         <v>2</v>
       </c>
-      <c r="D201" s="8">
+      <c r="D201" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="8">
+      <c r="B202" s="4">
         <v>216</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="4">
         <v>3</v>
       </c>
-      <c r="D202" s="8">
+      <c r="D202" s="4">
         <f t="shared" si="4"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="8">
+      <c r="B203" s="4">
         <v>217</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="4">
         <v>5</v>
       </c>
-      <c r="D203" s="8">
+      <c r="D203" s="4">
         <f t="shared" si="4"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="8">
+      <c r="B204" s="4">
         <v>218</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="4">
         <v>2</v>
       </c>
-      <c r="D204" s="8">
+      <c r="D204" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="8">
+      <c r="B205" s="4">
         <v>219</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="4">
         <v>3</v>
       </c>
-      <c r="D205" s="8">
+      <c r="D205" s="4">
         <f t="shared" si="4"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="8">
+      <c r="B206" s="4">
         <v>221</v>
       </c>
-      <c r="C206" s="8">
-        <v>1</v>
-      </c>
-      <c r="D206" s="8">
+      <c r="C206" s="4">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="8">
+      <c r="B207" s="4">
         <v>223</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="4">
         <v>2</v>
       </c>
-      <c r="D207" s="8">
+      <c r="D207" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="8">
+      <c r="B208" s="4">
         <v>225</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208" s="4">
         <v>2</v>
       </c>
-      <c r="D208" s="8">
+      <c r="D208" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="8">
+      <c r="B209" s="4">
         <v>227</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209" s="4">
         <v>2</v>
       </c>
-      <c r="D209" s="8">
+      <c r="D209" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="8">
+      <c r="B210" s="4">
         <v>228</v>
       </c>
-      <c r="C210" s="8">
-        <v>1</v>
-      </c>
-      <c r="D210" s="8">
+      <c r="C210" s="4">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="8">
+      <c r="B211" s="4">
         <v>229</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211" s="4">
         <v>2</v>
       </c>
-      <c r="D211" s="8">
+      <c r="D211" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="8">
+      <c r="B212" s="4">
         <v>232</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212" s="4">
         <v>2</v>
       </c>
-      <c r="D212" s="8">
+      <c r="D212" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="8">
+      <c r="B213" s="4">
         <v>233</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="4">
         <v>2</v>
       </c>
-      <c r="D213" s="8">
+      <c r="D213" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="8">
+      <c r="B214" s="4">
         <v>234</v>
       </c>
-      <c r="C214" s="8">
-        <v>1</v>
-      </c>
-      <c r="D214" s="8">
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="8">
+      <c r="B215" s="4">
         <v>235</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="4">
         <v>2</v>
       </c>
-      <c r="D215" s="8">
+      <c r="D215" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="8">
+      <c r="B216" s="4">
         <v>236</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="4">
         <v>2</v>
       </c>
-      <c r="D216" s="8">
+      <c r="D216" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B217" s="8">
+      <c r="B217" s="4">
         <v>237</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="4">
         <v>2</v>
       </c>
-      <c r="D217" s="8">
+      <c r="D217" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="8">
+      <c r="B218" s="4">
         <v>239</v>
       </c>
-      <c r="C218" s="8">
-        <v>1</v>
-      </c>
-      <c r="D218" s="8">
+      <c r="C218" s="4">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="8">
+      <c r="B219" s="4">
         <v>242</v>
       </c>
-      <c r="C219" s="8">
-        <v>1</v>
-      </c>
-      <c r="D219" s="8">
+      <c r="C219" s="4">
+        <v>1</v>
+      </c>
+      <c r="D219" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="8">
+      <c r="B220" s="4">
         <v>243</v>
       </c>
-      <c r="C220" s="8">
-        <v>1</v>
-      </c>
-      <c r="D220" s="8">
+      <c r="C220" s="4">
+        <v>1</v>
+      </c>
+      <c r="D220" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="8">
+      <c r="B221" s="4">
         <v>245</v>
       </c>
-      <c r="C221" s="8">
-        <v>1</v>
-      </c>
-      <c r="D221" s="8">
+      <c r="C221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="8">
+      <c r="B222" s="4">
         <v>247</v>
       </c>
-      <c r="C222" s="8">
+      <c r="C222" s="4">
         <v>2</v>
       </c>
-      <c r="D222" s="8">
+      <c r="D222" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="8">
+      <c r="B223" s="4">
         <v>248</v>
       </c>
-      <c r="C223" s="8">
-        <v>1</v>
-      </c>
-      <c r="D223" s="8">
+      <c r="C223" s="4">
+        <v>1</v>
+      </c>
+      <c r="D223" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="8">
+      <c r="B224" s="4">
         <v>249</v>
       </c>
-      <c r="C224" s="8">
+      <c r="C224" s="4">
         <v>4</v>
       </c>
-      <c r="D224" s="8">
+      <c r="D224" s="4">
         <f t="shared" si="4"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B225" s="8">
+      <c r="B225" s="4">
         <v>251</v>
       </c>
-      <c r="C225" s="8">
-        <v>1</v>
-      </c>
-      <c r="D225" s="8">
+      <c r="C225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B226" s="8">
+      <c r="B226" s="4">
         <v>252</v>
       </c>
-      <c r="C226" s="8">
-        <v>1</v>
-      </c>
-      <c r="D226" s="8">
+      <c r="C226" s="4">
+        <v>1</v>
+      </c>
+      <c r="D226" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="8">
+      <c r="B227" s="4">
         <v>253</v>
       </c>
-      <c r="C227" s="8">
-        <v>1</v>
-      </c>
-      <c r="D227" s="8">
+      <c r="C227" s="4">
+        <v>1</v>
+      </c>
+      <c r="D227" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B228" s="8">
+      <c r="B228" s="4">
         <v>256</v>
       </c>
-      <c r="C228" s="8">
-        <v>1</v>
-      </c>
-      <c r="D228" s="8">
+      <c r="C228" s="4">
+        <v>1</v>
+      </c>
+      <c r="D228" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B229" s="8">
+      <c r="B229" s="4">
         <v>257</v>
       </c>
-      <c r="C229" s="8">
+      <c r="C229" s="4">
         <v>2</v>
       </c>
-      <c r="D229" s="8">
+      <c r="D229" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="8">
+      <c r="B230" s="4">
         <v>258</v>
       </c>
-      <c r="C230" s="8">
+      <c r="C230" s="4">
         <v>2</v>
       </c>
-      <c r="D230" s="8">
+      <c r="D230" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="8">
+      <c r="B231" s="4">
         <v>259</v>
       </c>
-      <c r="C231" s="8">
-        <v>1</v>
-      </c>
-      <c r="D231" s="8">
+      <c r="C231" s="4">
+        <v>1</v>
+      </c>
+      <c r="D231" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B232" s="8">
+      <c r="B232" s="4">
         <v>260</v>
       </c>
-      <c r="C232" s="8">
-        <v>1</v>
-      </c>
-      <c r="D232" s="8">
+      <c r="C232" s="4">
+        <v>1</v>
+      </c>
+      <c r="D232" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B233" s="8">
+      <c r="B233" s="4">
         <v>267</v>
       </c>
-      <c r="C233" s="8">
+      <c r="C233" s="4">
         <v>2</v>
       </c>
-      <c r="D233" s="8">
+      <c r="D233" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="8">
+      <c r="B234" s="4">
         <v>269</v>
       </c>
-      <c r="C234" s="8">
-        <v>1</v>
-      </c>
-      <c r="D234" s="8">
+      <c r="C234" s="4">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B235" s="8">
+      <c r="B235" s="4">
         <v>271</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="4">
         <v>5</v>
       </c>
-      <c r="D235" s="8">
+      <c r="D235" s="4">
         <f t="shared" si="4"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="8">
+      <c r="B236" s="4">
         <v>272</v>
       </c>
-      <c r="C236" s="8">
-        <v>1</v>
-      </c>
-      <c r="D236" s="8">
+      <c r="C236" s="4">
+        <v>1</v>
+      </c>
+      <c r="D236" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B237" s="8">
+      <c r="B237" s="4">
         <v>273</v>
       </c>
-      <c r="C237" s="8">
+      <c r="C237" s="4">
         <v>2</v>
       </c>
-      <c r="D237" s="8">
+      <c r="D237" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="8">
+      <c r="B238" s="4">
         <v>274</v>
       </c>
-      <c r="C238" s="8">
-        <v>1</v>
-      </c>
-      <c r="D238" s="8">
+      <c r="C238" s="4">
+        <v>1</v>
+      </c>
+      <c r="D238" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B239" s="8">
+      <c r="B239" s="4">
         <v>275</v>
       </c>
-      <c r="C239" s="8">
-        <v>1</v>
-      </c>
-      <c r="D239" s="8">
+      <c r="C239" s="4">
+        <v>1</v>
+      </c>
+      <c r="D239" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="8">
+      <c r="B240" s="4">
         <v>276</v>
       </c>
-      <c r="C240" s="8">
+      <c r="C240" s="4">
         <v>2</v>
       </c>
-      <c r="D240" s="8">
+      <c r="D240" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B241" s="8">
+      <c r="B241" s="4">
         <v>278</v>
       </c>
-      <c r="C241" s="8">
-        <v>1</v>
-      </c>
-      <c r="D241" s="8">
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="8">
+      <c r="B242" s="4">
         <v>279</v>
       </c>
-      <c r="C242" s="8">
-        <v>1</v>
-      </c>
-      <c r="D242" s="8">
+      <c r="C242" s="4">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="8">
+      <c r="B243" s="4">
         <v>280</v>
       </c>
-      <c r="C243" s="8">
-        <v>1</v>
-      </c>
-      <c r="D243" s="8">
+      <c r="C243" s="4">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="8">
+      <c r="B244" s="4">
         <v>284</v>
       </c>
-      <c r="C244" s="8">
-        <v>1</v>
-      </c>
-      <c r="D244" s="8">
+      <c r="C244" s="4">
+        <v>1</v>
+      </c>
+      <c r="D244" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B245" s="8">
+      <c r="B245" s="4">
         <v>285</v>
       </c>
-      <c r="C245" s="8">
+      <c r="C245" s="4">
         <v>2</v>
       </c>
-      <c r="D245" s="8">
+      <c r="D245" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="8">
+      <c r="B246" s="4">
         <v>286</v>
       </c>
-      <c r="C246" s="8">
-        <v>1</v>
-      </c>
-      <c r="D246" s="8">
+      <c r="C246" s="4">
+        <v>1</v>
+      </c>
+      <c r="D246" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="8">
+      <c r="B247" s="4">
         <v>287</v>
       </c>
-      <c r="C247" s="8">
-        <v>1</v>
-      </c>
-      <c r="D247" s="8">
+      <c r="C247" s="4">
+        <v>1</v>
+      </c>
+      <c r="D247" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="8">
+      <c r="B248" s="4">
         <v>288</v>
       </c>
-      <c r="C248" s="8">
+      <c r="C248" s="4">
         <v>2</v>
       </c>
-      <c r="D248" s="8">
+      <c r="D248" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B249" s="8">
+      <c r="B249" s="4">
         <v>289</v>
       </c>
-      <c r="C249" s="8">
-        <v>1</v>
-      </c>
-      <c r="D249" s="8">
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="8">
+      <c r="B250" s="4">
         <v>290</v>
       </c>
-      <c r="C250" s="8">
+      <c r="C250" s="4">
         <v>2</v>
       </c>
-      <c r="D250" s="8">
+      <c r="D250" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="8">
+      <c r="B251" s="4">
         <v>293</v>
       </c>
-      <c r="C251" s="8">
-        <v>1</v>
-      </c>
-      <c r="D251" s="8">
+      <c r="C251" s="4">
+        <v>1</v>
+      </c>
+      <c r="D251" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="8">
+      <c r="B252" s="4">
         <v>294</v>
       </c>
-      <c r="C252" s="8">
-        <v>1</v>
-      </c>
-      <c r="D252" s="8">
+      <c r="C252" s="4">
+        <v>1</v>
+      </c>
+      <c r="D252" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B253" s="8">
+      <c r="B253" s="4">
         <v>295</v>
       </c>
-      <c r="C253" s="8">
+      <c r="C253" s="4">
         <v>4</v>
       </c>
-      <c r="D253" s="8">
+      <c r="D253" s="4">
         <f t="shared" si="4"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="8">
+      <c r="B254" s="4">
         <v>300</v>
       </c>
-      <c r="C254" s="8">
-        <v>1</v>
-      </c>
-      <c r="D254" s="8">
+      <c r="C254" s="4">
+        <v>1</v>
+      </c>
+      <c r="D254" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B255" s="8">
+      <c r="B255" s="4">
         <v>301</v>
       </c>
-      <c r="C255" s="8">
+      <c r="C255" s="4">
         <v>2</v>
       </c>
-      <c r="D255" s="8">
+      <c r="D255" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="8">
+      <c r="B256" s="4">
         <v>305</v>
       </c>
-      <c r="C256" s="8">
-        <v>1</v>
-      </c>
-      <c r="D256" s="8">
+      <c r="C256" s="4">
+        <v>1</v>
+      </c>
+      <c r="D256" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="8">
+      <c r="B257" s="4">
         <v>306</v>
       </c>
-      <c r="C257" s="8">
-        <v>1</v>
-      </c>
-      <c r="D257" s="8">
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="8">
+      <c r="B258" s="4">
         <v>308</v>
       </c>
-      <c r="C258" s="8">
+      <c r="C258" s="4">
         <v>3</v>
       </c>
-      <c r="D258" s="8">
+      <c r="D258" s="4">
         <f t="shared" si="4"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="8">
+      <c r="B259" s="4">
         <v>310</v>
       </c>
-      <c r="C259" s="8">
+      <c r="C259" s="4">
         <v>5</v>
       </c>
-      <c r="D259" s="8">
+      <c r="D259" s="4">
         <f t="shared" si="4"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="8">
+      <c r="B260" s="4">
         <v>311</v>
       </c>
-      <c r="C260" s="8">
+      <c r="C260" s="4">
         <v>2</v>
       </c>
-      <c r="D260" s="8">
+      <c r="D260" s="4">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="8">
+      <c r="B261" s="4">
         <v>318</v>
       </c>
-      <c r="C261" s="8">
+      <c r="C261" s="4">
         <v>2</v>
       </c>
-      <c r="D261" s="8">
+      <c r="D261" s="4">
         <f t="shared" ref="D261:D324" si="5">LN(C261)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="8">
+      <c r="B262" s="4">
         <v>319</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C262" s="4">
         <v>2</v>
       </c>
-      <c r="D262" s="8">
+      <c r="D262" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="8">
+      <c r="B263" s="4">
         <v>320</v>
       </c>
-      <c r="C263" s="8">
-        <v>1</v>
-      </c>
-      <c r="D263" s="8">
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+      <c r="D263" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="8">
+      <c r="B264" s="4">
         <v>325</v>
       </c>
-      <c r="C264" s="8">
-        <v>1</v>
-      </c>
-      <c r="D264" s="8">
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+      <c r="D264" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="8">
+      <c r="B265" s="4">
         <v>328</v>
       </c>
-      <c r="C265" s="8">
+      <c r="C265" s="4">
         <v>3</v>
       </c>
-      <c r="D265" s="8">
+      <c r="D265" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="8">
+      <c r="B266" s="4">
         <v>330</v>
       </c>
-      <c r="C266" s="8">
-        <v>1</v>
-      </c>
-      <c r="D266" s="8">
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+      <c r="D266" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B267" s="8">
+      <c r="B267" s="4">
         <v>335</v>
       </c>
-      <c r="C267" s="8">
-        <v>1</v>
-      </c>
-      <c r="D267" s="8">
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B268" s="8">
+      <c r="B268" s="4">
         <v>337</v>
       </c>
-      <c r="C268" s="8">
-        <v>1</v>
-      </c>
-      <c r="D268" s="8">
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+      <c r="D268" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B269" s="8">
+      <c r="B269" s="4">
         <v>338</v>
       </c>
-      <c r="C269" s="8">
-        <v>1</v>
-      </c>
-      <c r="D269" s="8">
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B270" s="8">
+      <c r="B270" s="4">
         <v>340</v>
       </c>
-      <c r="C270" s="8">
+      <c r="C270" s="4">
         <v>2</v>
       </c>
-      <c r="D270" s="8">
+      <c r="D270" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="8">
+      <c r="B271" s="4">
         <v>343</v>
       </c>
-      <c r="C271" s="8">
+      <c r="C271" s="4">
         <v>3</v>
       </c>
-      <c r="D271" s="8">
+      <c r="D271" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B272" s="8">
+      <c r="B272" s="4">
         <v>346</v>
       </c>
-      <c r="C272" s="8">
-        <v>1</v>
-      </c>
-      <c r="D272" s="8">
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+      <c r="D272" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B273" s="8">
+      <c r="B273" s="4">
         <v>349</v>
       </c>
-      <c r="C273" s="8">
+      <c r="C273" s="4">
         <v>2</v>
       </c>
-      <c r="D273" s="8">
+      <c r="D273" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B274" s="8">
+      <c r="B274" s="4">
         <v>350</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="4">
         <v>2</v>
       </c>
-      <c r="D274" s="8">
+      <c r="D274" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B275" s="8">
+      <c r="B275" s="4">
         <v>353</v>
       </c>
-      <c r="C275" s="8">
-        <v>1</v>
-      </c>
-      <c r="D275" s="8">
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B276" s="8">
+      <c r="B276" s="4">
         <v>358</v>
       </c>
-      <c r="C276" s="8">
-        <v>1</v>
-      </c>
-      <c r="D276" s="8">
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B277" s="8">
+      <c r="B277" s="4">
         <v>362</v>
       </c>
-      <c r="C277" s="8">
-        <v>1</v>
-      </c>
-      <c r="D277" s="8">
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B278" s="8">
+      <c r="B278" s="4">
         <v>366</v>
       </c>
-      <c r="C278" s="8">
-        <v>1</v>
-      </c>
-      <c r="D278" s="8">
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B279" s="8">
+      <c r="B279" s="4">
         <v>372</v>
       </c>
-      <c r="C279" s="8">
-        <v>1</v>
-      </c>
-      <c r="D279" s="8">
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B280" s="8">
+      <c r="B280" s="4">
         <v>374</v>
       </c>
-      <c r="C280" s="8">
-        <v>1</v>
-      </c>
-      <c r="D280" s="8">
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B281" s="8">
+      <c r="B281" s="4">
         <v>375</v>
       </c>
-      <c r="C281" s="8">
-        <v>1</v>
-      </c>
-      <c r="D281" s="8">
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B282" s="8">
+      <c r="B282" s="4">
         <v>376</v>
       </c>
-      <c r="C282" s="8">
-        <v>1</v>
-      </c>
-      <c r="D282" s="8">
+      <c r="C282" s="4">
+        <v>1</v>
+      </c>
+      <c r="D282" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B283" s="8">
+      <c r="B283" s="4">
         <v>379</v>
       </c>
-      <c r="C283" s="8">
-        <v>1</v>
-      </c>
-      <c r="D283" s="8">
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+      <c r="D283" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B284" s="8">
+      <c r="B284" s="4">
         <v>380</v>
       </c>
-      <c r="C284" s="8">
-        <v>1</v>
-      </c>
-      <c r="D284" s="8">
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+      <c r="D284" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B285" s="8">
+      <c r="B285" s="4">
         <v>381</v>
       </c>
-      <c r="C285" s="8">
-        <v>1</v>
-      </c>
-      <c r="D285" s="8">
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+      <c r="D285" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B286" s="8">
+      <c r="B286" s="4">
         <v>383</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="4">
         <v>2</v>
       </c>
-      <c r="D286" s="8">
+      <c r="D286" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B287" s="8">
+      <c r="B287" s="4">
         <v>386</v>
       </c>
-      <c r="C287" s="8">
-        <v>1</v>
-      </c>
-      <c r="D287" s="8">
+      <c r="C287" s="4">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B288" s="8">
+      <c r="B288" s="4">
         <v>389</v>
       </c>
-      <c r="C288" s="8">
-        <v>1</v>
-      </c>
-      <c r="D288" s="8">
+      <c r="C288" s="4">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B289" s="8">
+      <c r="B289" s="4">
         <v>392</v>
       </c>
-      <c r="C289" s="8">
+      <c r="C289" s="4">
         <v>3</v>
       </c>
-      <c r="D289" s="8">
+      <c r="D289" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B290" s="8">
+      <c r="B290" s="4">
         <v>394</v>
       </c>
-      <c r="C290" s="8">
+      <c r="C290" s="4">
         <v>3</v>
       </c>
-      <c r="D290" s="8">
+      <c r="D290" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B291" s="8">
+      <c r="B291" s="4">
         <v>400</v>
       </c>
-      <c r="C291" s="8">
+      <c r="C291" s="4">
         <v>2</v>
       </c>
-      <c r="D291" s="8">
+      <c r="D291" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B292" s="8">
+      <c r="B292" s="4">
         <v>402</v>
       </c>
-      <c r="C292" s="8">
-        <v>1</v>
-      </c>
-      <c r="D292" s="8">
+      <c r="C292" s="4">
+        <v>1</v>
+      </c>
+      <c r="D292" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B293" s="8">
+      <c r="B293" s="4">
         <v>405</v>
       </c>
-      <c r="C293" s="8">
-        <v>1</v>
-      </c>
-      <c r="D293" s="8">
+      <c r="C293" s="4">
+        <v>1</v>
+      </c>
+      <c r="D293" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B294" s="8">
+      <c r="B294" s="4">
         <v>409</v>
       </c>
-      <c r="C294" s="8">
+      <c r="C294" s="4">
         <v>4</v>
       </c>
-      <c r="D294" s="8">
+      <c r="D294" s="4">
         <f t="shared" si="5"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B295" s="8">
+      <c r="B295" s="4">
         <v>413</v>
       </c>
-      <c r="C295" s="8">
-        <v>1</v>
-      </c>
-      <c r="D295" s="8">
+      <c r="C295" s="4">
+        <v>1</v>
+      </c>
+      <c r="D295" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B296" s="8">
+      <c r="B296" s="4">
         <v>416</v>
       </c>
-      <c r="C296" s="8">
+      <c r="C296" s="4">
         <v>2</v>
       </c>
-      <c r="D296" s="8">
+      <c r="D296" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B297" s="8">
+      <c r="B297" s="4">
         <v>419</v>
       </c>
-      <c r="C297" s="8">
-        <v>1</v>
-      </c>
-      <c r="D297" s="8">
+      <c r="C297" s="4">
+        <v>1</v>
+      </c>
+      <c r="D297" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B298" s="8">
+      <c r="B298" s="4">
         <v>426</v>
       </c>
-      <c r="C298" s="8">
+      <c r="C298" s="4">
         <v>2</v>
       </c>
-      <c r="D298" s="8">
+      <c r="D298" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B299" s="8">
+      <c r="B299" s="4">
         <v>429</v>
       </c>
-      <c r="C299" s="8">
+      <c r="C299" s="4">
         <v>3</v>
       </c>
-      <c r="D299" s="8">
+      <c r="D299" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B300" s="8">
+      <c r="B300" s="4">
         <v>432</v>
       </c>
-      <c r="C300" s="8">
-        <v>1</v>
-      </c>
-      <c r="D300" s="8">
+      <c r="C300" s="4">
+        <v>1</v>
+      </c>
+      <c r="D300" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B301" s="8">
+      <c r="B301" s="4">
         <v>436</v>
       </c>
-      <c r="C301" s="8">
-        <v>1</v>
-      </c>
-      <c r="D301" s="8">
+      <c r="C301" s="4">
+        <v>1</v>
+      </c>
+      <c r="D301" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B302" s="8">
+      <c r="B302" s="4">
         <v>437</v>
       </c>
-      <c r="C302" s="8">
-        <v>1</v>
-      </c>
-      <c r="D302" s="8">
+      <c r="C302" s="4">
+        <v>1</v>
+      </c>
+      <c r="D302" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B303" s="8">
+      <c r="B303" s="4">
         <v>438</v>
       </c>
-      <c r="C303" s="8">
+      <c r="C303" s="4">
         <v>3</v>
       </c>
-      <c r="D303" s="8">
+      <c r="D303" s="4">
         <f t="shared" si="5"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B304" s="8">
+      <c r="B304" s="4">
         <v>439</v>
       </c>
-      <c r="C304" s="8">
-        <v>1</v>
-      </c>
-      <c r="D304" s="8">
+      <c r="C304" s="4">
+        <v>1</v>
+      </c>
+      <c r="D304" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B305" s="8">
+      <c r="B305" s="4">
         <v>442</v>
       </c>
-      <c r="C305" s="8">
-        <v>1</v>
-      </c>
-      <c r="D305" s="8">
+      <c r="C305" s="4">
+        <v>1</v>
+      </c>
+      <c r="D305" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B306" s="8">
+      <c r="B306" s="4">
         <v>443</v>
       </c>
-      <c r="C306" s="8">
-        <v>1</v>
-      </c>
-      <c r="D306" s="8">
+      <c r="C306" s="4">
+        <v>1</v>
+      </c>
+      <c r="D306" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B307" s="8">
+      <c r="B307" s="4">
         <v>445</v>
       </c>
-      <c r="C307" s="8">
-        <v>1</v>
-      </c>
-      <c r="D307" s="8">
+      <c r="C307" s="4">
+        <v>1</v>
+      </c>
+      <c r="D307" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B308" s="8">
+      <c r="B308" s="4">
         <v>446</v>
       </c>
-      <c r="C308" s="8">
+      <c r="C308" s="4">
         <v>2</v>
       </c>
-      <c r="D308" s="8">
+      <c r="D308" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B309" s="8">
+      <c r="B309" s="4">
         <v>448</v>
       </c>
-      <c r="C309" s="8">
-        <v>1</v>
-      </c>
-      <c r="D309" s="8">
+      <c r="C309" s="4">
+        <v>1</v>
+      </c>
+      <c r="D309" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B310" s="8">
+      <c r="B310" s="4">
         <v>453</v>
       </c>
-      <c r="C310" s="8">
-        <v>1</v>
-      </c>
-      <c r="D310" s="8">
+      <c r="C310" s="4">
+        <v>1</v>
+      </c>
+      <c r="D310" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B311" s="8">
+      <c r="B311" s="4">
         <v>457</v>
       </c>
-      <c r="C311" s="8">
+      <c r="C311" s="4">
         <v>2</v>
       </c>
-      <c r="D311" s="8">
+      <c r="D311" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B312" s="8">
+      <c r="B312" s="4">
         <v>459</v>
       </c>
-      <c r="C312" s="8">
-        <v>1</v>
-      </c>
-      <c r="D312" s="8">
+      <c r="C312" s="4">
+        <v>1</v>
+      </c>
+      <c r="D312" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B313" s="8">
+      <c r="B313" s="4">
         <v>460</v>
       </c>
-      <c r="C313" s="8">
+      <c r="C313" s="4">
         <v>2</v>
       </c>
-      <c r="D313" s="8">
+      <c r="D313" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B314" s="8">
+      <c r="B314" s="4">
         <v>467</v>
       </c>
-      <c r="C314" s="8">
-        <v>1</v>
-      </c>
-      <c r="D314" s="8">
+      <c r="C314" s="4">
+        <v>1</v>
+      </c>
+      <c r="D314" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B315" s="8">
+      <c r="B315" s="4">
         <v>472</v>
       </c>
-      <c r="C315" s="8">
-        <v>1</v>
-      </c>
-      <c r="D315" s="8">
+      <c r="C315" s="4">
+        <v>1</v>
+      </c>
+      <c r="D315" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B316" s="8">
+      <c r="B316" s="4">
         <v>476</v>
       </c>
-      <c r="C316" s="8">
-        <v>1</v>
-      </c>
-      <c r="D316" s="8">
+      <c r="C316" s="4">
+        <v>1</v>
+      </c>
+      <c r="D316" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B317" s="8">
+      <c r="B317" s="4">
         <v>478</v>
       </c>
-      <c r="C317" s="8">
-        <v>1</v>
-      </c>
-      <c r="D317" s="8">
+      <c r="C317" s="4">
+        <v>1</v>
+      </c>
+      <c r="D317" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B318" s="8">
+      <c r="B318" s="4">
         <v>484</v>
       </c>
-      <c r="C318" s="8">
+      <c r="C318" s="4">
         <v>5</v>
       </c>
-      <c r="D318" s="8">
+      <c r="D318" s="4">
         <f t="shared" si="5"/>
         <v>1.6094379124341003</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B319" s="8">
+      <c r="B319" s="4">
         <v>485</v>
       </c>
-      <c r="C319" s="8">
+      <c r="C319" s="4">
         <v>2</v>
       </c>
-      <c r="D319" s="8">
+      <c r="D319" s="4">
         <f t="shared" si="5"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B320" s="8">
+      <c r="B320" s="4">
         <v>487</v>
       </c>
-      <c r="C320" s="8">
-        <v>1</v>
-      </c>
-      <c r="D320" s="8">
+      <c r="C320" s="4">
+        <v>1</v>
+      </c>
+      <c r="D320" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B321" s="8">
+      <c r="B321" s="4">
         <v>488</v>
       </c>
-      <c r="C321" s="8">
-        <v>1</v>
-      </c>
-      <c r="D321" s="8">
+      <c r="C321" s="4">
+        <v>1</v>
+      </c>
+      <c r="D321" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B322" s="8">
+      <c r="B322" s="4">
         <v>497</v>
       </c>
-      <c r="C322" s="8">
-        <v>1</v>
-      </c>
-      <c r="D322" s="8">
+      <c r="C322" s="4">
+        <v>1</v>
+      </c>
+      <c r="D322" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B323" s="8">
+      <c r="B323" s="4">
         <v>508</v>
       </c>
-      <c r="C323" s="8">
-        <v>1</v>
-      </c>
-      <c r="D323" s="8">
+      <c r="C323" s="4">
+        <v>1</v>
+      </c>
+      <c r="D323" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B324" s="8">
+      <c r="B324" s="4">
         <v>510</v>
       </c>
-      <c r="C324" s="8">
-        <v>1</v>
-      </c>
-      <c r="D324" s="8">
+      <c r="C324" s="4">
+        <v>1</v>
+      </c>
+      <c r="D324" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B325" s="8">
+      <c r="B325" s="4">
         <v>519</v>
       </c>
-      <c r="C325" s="8">
-        <v>1</v>
-      </c>
-      <c r="D325" s="8">
+      <c r="C325" s="4">
+        <v>1</v>
+      </c>
+      <c r="D325" s="4">
         <f t="shared" ref="D325:D388" si="6">LN(C325)</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B326" s="8">
+      <c r="B326" s="4">
         <v>528</v>
       </c>
-      <c r="C326" s="8">
+      <c r="C326" s="4">
         <v>3</v>
       </c>
-      <c r="D326" s="8">
+      <c r="D326" s="4">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B327" s="8">
+      <c r="B327" s="4">
         <v>531</v>
       </c>
-      <c r="C327" s="8">
-        <v>1</v>
-      </c>
-      <c r="D327" s="8">
+      <c r="C327" s="4">
+        <v>1</v>
+      </c>
+      <c r="D327" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B328" s="8">
+      <c r="B328" s="4">
         <v>539</v>
       </c>
-      <c r="C328" s="8">
-        <v>1</v>
-      </c>
-      <c r="D328" s="8">
+      <c r="C328" s="4">
+        <v>1</v>
+      </c>
+      <c r="D328" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B329" s="8">
+      <c r="B329" s="4">
         <v>541</v>
       </c>
-      <c r="C329" s="8">
-        <v>1</v>
-      </c>
-      <c r="D329" s="8">
+      <c r="C329" s="4">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B330" s="8">
+      <c r="B330" s="4">
         <v>544</v>
       </c>
-      <c r="C330" s="8">
-        <v>1</v>
-      </c>
-      <c r="D330" s="8">
+      <c r="C330" s="4">
+        <v>1</v>
+      </c>
+      <c r="D330" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B331" s="8">
+      <c r="B331" s="4">
         <v>545</v>
       </c>
-      <c r="C331" s="8">
-        <v>1</v>
-      </c>
-      <c r="D331" s="8">
+      <c r="C331" s="4">
+        <v>1</v>
+      </c>
+      <c r="D331" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B332" s="8">
+      <c r="B332" s="4">
         <v>546</v>
       </c>
-      <c r="C332" s="8">
-        <v>1</v>
-      </c>
-      <c r="D332" s="8">
+      <c r="C332" s="4">
+        <v>1</v>
+      </c>
+      <c r="D332" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B333" s="8">
+      <c r="B333" s="4">
         <v>552</v>
       </c>
-      <c r="C333" s="8">
-        <v>1</v>
-      </c>
-      <c r="D333" s="8">
+      <c r="C333" s="4">
+        <v>1</v>
+      </c>
+      <c r="D333" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B334" s="8">
+      <c r="B334" s="4">
         <v>555</v>
       </c>
-      <c r="C334" s="8">
-        <v>1</v>
-      </c>
-      <c r="D334" s="8">
+      <c r="C334" s="4">
+        <v>1</v>
+      </c>
+      <c r="D334" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B335" s="8">
+      <c r="B335" s="4">
         <v>557</v>
       </c>
-      <c r="C335" s="8">
+      <c r="C335" s="4">
         <v>2</v>
       </c>
-      <c r="D335" s="8">
+      <c r="D335" s="4">
         <f t="shared" si="6"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B336" s="8">
+      <c r="B336" s="4">
         <v>561</v>
       </c>
-      <c r="C336" s="8">
+      <c r="C336" s="4">
         <v>2</v>
       </c>
-      <c r="D336" s="8">
+      <c r="D336" s="4">
         <f t="shared" si="6"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B337" s="8">
+      <c r="B337" s="4">
         <v>574</v>
       </c>
-      <c r="C337" s="8">
-        <v>1</v>
-      </c>
-      <c r="D337" s="8">
+      <c r="C337" s="4">
+        <v>1</v>
+      </c>
+      <c r="D337" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B338" s="8">
+      <c r="B338" s="4">
         <v>585</v>
       </c>
-      <c r="C338" s="8">
+      <c r="C338" s="4">
         <v>4</v>
       </c>
-      <c r="D338" s="8">
+      <c r="D338" s="4">
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B339" s="8">
+      <c r="B339" s="4">
         <v>594</v>
       </c>
-      <c r="C339" s="8">
-        <v>1</v>
-      </c>
-      <c r="D339" s="8">
+      <c r="C339" s="4">
+        <v>1</v>
+      </c>
+      <c r="D339" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B340" s="8">
+      <c r="B340" s="4">
         <v>603</v>
       </c>
-      <c r="C340" s="8">
-        <v>1</v>
-      </c>
-      <c r="D340" s="8">
+      <c r="C340" s="4">
+        <v>1</v>
+      </c>
+      <c r="D340" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B341" s="8">
+      <c r="B341" s="4">
         <v>604</v>
       </c>
-      <c r="C341" s="8">
-        <v>1</v>
-      </c>
-      <c r="D341" s="8">
+      <c r="C341" s="4">
+        <v>1</v>
+      </c>
+      <c r="D341" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B342" s="8">
+      <c r="B342" s="4">
         <v>606</v>
       </c>
-      <c r="C342" s="8">
-        <v>1</v>
-      </c>
-      <c r="D342" s="8">
+      <c r="C342" s="4">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B343" s="8">
+      <c r="B343" s="4">
         <v>608</v>
       </c>
-      <c r="C343" s="8">
-        <v>1</v>
-      </c>
-      <c r="D343" s="8">
+      <c r="C343" s="4">
+        <v>1</v>
+      </c>
+      <c r="D343" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B344" s="8">
+      <c r="B344" s="4">
         <v>617</v>
       </c>
-      <c r="C344" s="8">
-        <v>1</v>
-      </c>
-      <c r="D344" s="8">
+      <c r="C344" s="4">
+        <v>1</v>
+      </c>
+      <c r="D344" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B345" s="8">
+      <c r="B345" s="4">
         <v>618</v>
       </c>
-      <c r="C345" s="8">
-        <v>1</v>
-      </c>
-      <c r="D345" s="8">
+      <c r="C345" s="4">
+        <v>1</v>
+      </c>
+      <c r="D345" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B346" s="8">
+      <c r="B346" s="4">
         <v>627</v>
       </c>
-      <c r="C346" s="8">
+      <c r="C346" s="4">
         <v>3</v>
       </c>
-      <c r="D346" s="8">
+      <c r="D346" s="4">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B347" s="8">
+      <c r="B347" s="4">
         <v>634</v>
       </c>
-      <c r="C347" s="8">
-        <v>1</v>
-      </c>
-      <c r="D347" s="8">
+      <c r="C347" s="4">
+        <v>1</v>
+      </c>
+      <c r="D347" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B348" s="8">
+      <c r="B348" s="4">
         <v>646</v>
       </c>
-      <c r="C348" s="8">
-        <v>1</v>
-      </c>
-      <c r="D348" s="8">
+      <c r="C348" s="4">
+        <v>1</v>
+      </c>
+      <c r="D348" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B349" s="8">
+      <c r="B349" s="4">
         <v>655</v>
       </c>
-      <c r="C349" s="8">
-        <v>1</v>
-      </c>
-      <c r="D349" s="8">
+      <c r="C349" s="4">
+        <v>1</v>
+      </c>
+      <c r="D349" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B350" s="8">
+      <c r="B350" s="4">
         <v>667</v>
       </c>
-      <c r="C350" s="8">
+      <c r="C350" s="4">
         <v>3</v>
       </c>
-      <c r="D350" s="8">
+      <c r="D350" s="4">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B351" s="8">
+      <c r="B351" s="4">
         <v>676</v>
       </c>
-      <c r="C351" s="8">
+      <c r="C351" s="4">
         <v>3</v>
       </c>
-      <c r="D351" s="8">
+      <c r="D351" s="4">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B352" s="8">
+      <c r="B352" s="4">
         <v>679</v>
       </c>
-      <c r="C352" s="8">
-        <v>1</v>
-      </c>
-      <c r="D352" s="8">
+      <c r="C352" s="4">
+        <v>1</v>
+      </c>
+      <c r="D352" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B353" s="8">
+      <c r="B353" s="4">
         <v>710</v>
       </c>
-      <c r="C353" s="8">
-        <v>1</v>
-      </c>
-      <c r="D353" s="8">
+      <c r="C353" s="4">
+        <v>1</v>
+      </c>
+      <c r="D353" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B354" s="8">
+      <c r="B354" s="4">
         <v>724</v>
       </c>
-      <c r="C354" s="8">
-        <v>1</v>
-      </c>
-      <c r="D354" s="8">
+      <c r="C354" s="4">
+        <v>1</v>
+      </c>
+      <c r="D354" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B355" s="8">
+      <c r="B355" s="4">
         <v>745</v>
       </c>
-      <c r="C355" s="8">
-        <v>1</v>
-      </c>
-      <c r="D355" s="8">
+      <c r="C355" s="4">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B356" s="8">
+      <c r="B356" s="4">
         <v>748</v>
       </c>
-      <c r="C356" s="8">
-        <v>1</v>
-      </c>
-      <c r="D356" s="8">
+      <c r="C356" s="4">
+        <v>1</v>
+      </c>
+      <c r="D356" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B357" s="8">
+      <c r="B357" s="4">
         <v>751</v>
       </c>
-      <c r="C357" s="8">
-        <v>1</v>
-      </c>
-      <c r="D357" s="8">
+      <c r="C357" s="4">
+        <v>1</v>
+      </c>
+      <c r="D357" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B358" s="8">
+      <c r="B358" s="4">
         <v>754</v>
       </c>
-      <c r="C358" s="8">
-        <v>1</v>
-      </c>
-      <c r="D358" s="8">
+      <c r="C358" s="4">
+        <v>1</v>
+      </c>
+      <c r="D358" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B359" s="8">
+      <c r="B359" s="4">
         <v>762</v>
       </c>
-      <c r="C359" s="8">
-        <v>1</v>
-      </c>
-      <c r="D359" s="8">
+      <c r="C359" s="4">
+        <v>1</v>
+      </c>
+      <c r="D359" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B360" s="8">
+      <c r="B360" s="4">
         <v>785</v>
       </c>
-      <c r="C360" s="8">
-        <v>1</v>
-      </c>
-      <c r="D360" s="8">
+      <c r="C360" s="4">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B361" s="8">
+      <c r="B361" s="4">
         <v>805</v>
       </c>
-      <c r="C361" s="8">
+      <c r="C361" s="4">
         <v>3</v>
       </c>
-      <c r="D361" s="8">
+      <c r="D361" s="4">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B362" s="8">
+      <c r="B362" s="4">
         <v>807</v>
       </c>
-      <c r="C362" s="8">
-        <v>1</v>
-      </c>
-      <c r="D362" s="8">
+      <c r="C362" s="4">
+        <v>1</v>
+      </c>
+      <c r="D362" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B363" s="8">
+      <c r="B363" s="4">
         <v>816</v>
       </c>
-      <c r="C363" s="8">
-        <v>1</v>
-      </c>
-      <c r="D363" s="8">
+      <c r="C363" s="4">
+        <v>1</v>
+      </c>
+      <c r="D363" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B364" s="8">
+      <c r="B364" s="4">
         <v>819</v>
       </c>
-      <c r="C364" s="8">
-        <v>1</v>
-      </c>
-      <c r="D364" s="8">
+      <c r="C364" s="4">
+        <v>1</v>
+      </c>
+      <c r="D364" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B365" s="8">
+      <c r="B365" s="4">
         <v>832</v>
       </c>
-      <c r="C365" s="8">
-        <v>1</v>
-      </c>
-      <c r="D365" s="8">
+      <c r="C365" s="4">
+        <v>1</v>
+      </c>
+      <c r="D365" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B366" s="8">
+      <c r="B366" s="4">
         <v>866</v>
       </c>
-      <c r="C366" s="8">
+      <c r="C366" s="4">
         <v>2</v>
       </c>
-      <c r="D366" s="8">
+      <c r="D366" s="4">
         <f t="shared" si="6"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B367" s="8">
+      <c r="B367" s="4">
         <v>892</v>
       </c>
-      <c r="C367" s="8">
-        <v>1</v>
-      </c>
-      <c r="D367" s="8">
+      <c r="C367" s="4">
+        <v>1</v>
+      </c>
+      <c r="D367" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B368" s="8">
+      <c r="B368" s="4">
         <v>937</v>
       </c>
-      <c r="C368" s="8">
-        <v>1</v>
-      </c>
-      <c r="D368" s="8">
+      <c r="C368" s="4">
+        <v>1</v>
+      </c>
+      <c r="D368" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B369" s="8">
+      <c r="B369" s="4">
         <v>1004</v>
       </c>
-      <c r="C369" s="8">
-        <v>1</v>
-      </c>
-      <c r="D369" s="8">
+      <c r="C369" s="4">
+        <v>1</v>
+      </c>
+      <c r="D369" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B370" s="8">
+      <c r="B370" s="4">
         <v>1008</v>
       </c>
-      <c r="C370" s="8">
-        <v>1</v>
-      </c>
-      <c r="D370" s="8">
+      <c r="C370" s="4">
+        <v>1</v>
+      </c>
+      <c r="D370" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B371" s="8">
+      <c r="B371" s="4">
         <v>1063</v>
       </c>
-      <c r="C371" s="8">
-        <v>1</v>
-      </c>
-      <c r="D371" s="8">
+      <c r="C371" s="4">
+        <v>1</v>
+      </c>
+      <c r="D371" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B372" s="8">
+      <c r="B372" s="4">
         <v>1106</v>
       </c>
-      <c r="C372" s="8">
-        <v>1</v>
-      </c>
-      <c r="D372" s="8">
+      <c r="C372" s="4">
+        <v>1</v>
+      </c>
+      <c r="D372" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B373" s="8">
+      <c r="B373" s="4">
         <v>1133</v>
       </c>
-      <c r="C373" s="8">
-        <v>1</v>
-      </c>
-      <c r="D373" s="8">
+      <c r="C373" s="4">
+        <v>1</v>
+      </c>
+      <c r="D373" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B374" s="8">
+      <c r="B374" s="4">
         <v>1148</v>
       </c>
-      <c r="C374" s="8">
-        <v>1</v>
-      </c>
-      <c r="D374" s="8">
+      <c r="C374" s="4">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B375" s="8">
+      <c r="B375" s="4">
         <v>1151</v>
       </c>
-      <c r="C375" s="8">
-        <v>1</v>
-      </c>
-      <c r="D375" s="8">
+      <c r="C375" s="4">
+        <v>1</v>
+      </c>
+      <c r="D375" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B376" s="8">
+      <c r="B376" s="4">
         <v>1177</v>
       </c>
-      <c r="C376" s="8">
-        <v>1</v>
-      </c>
-      <c r="D376" s="8">
+      <c r="C376" s="4">
+        <v>1</v>
+      </c>
+      <c r="D376" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B377" s="8">
+      <c r="B377" s="4">
         <v>1178</v>
       </c>
-      <c r="C377" s="8">
-        <v>1</v>
-      </c>
-      <c r="D377" s="8">
+      <c r="C377" s="4">
+        <v>1</v>
+      </c>
+      <c r="D377" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B378" s="8">
+      <c r="B378" s="4">
         <v>1180</v>
       </c>
-      <c r="C378" s="8">
-        <v>1</v>
-      </c>
-      <c r="D378" s="8">
+      <c r="C378" s="4">
+        <v>1</v>
+      </c>
+      <c r="D378" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B379" s="8">
+      <c r="B379" s="4">
         <v>1192</v>
       </c>
-      <c r="C379" s="8">
-        <v>1</v>
-      </c>
-      <c r="D379" s="8">
+      <c r="C379" s="4">
+        <v>1</v>
+      </c>
+      <c r="D379" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B380" s="8">
+      <c r="B380" s="4">
         <v>1193</v>
       </c>
-      <c r="C380" s="8">
-        <v>1</v>
-      </c>
-      <c r="D380" s="8">
+      <c r="C380" s="4">
+        <v>1</v>
+      </c>
+      <c r="D380" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B381" s="8">
+      <c r="B381" s="4">
         <v>1196</v>
       </c>
-      <c r="C381" s="8">
-        <v>1</v>
-      </c>
-      <c r="D381" s="8">
+      <c r="C381" s="4">
+        <v>1</v>
+      </c>
+      <c r="D381" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B382" s="8">
+      <c r="B382" s="4">
         <v>1227</v>
       </c>
-      <c r="C382" s="8">
-        <v>1</v>
-      </c>
-      <c r="D382" s="8">
+      <c r="C382" s="4">
+        <v>1</v>
+      </c>
+      <c r="D382" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B383" s="8">
+      <c r="B383" s="4">
         <v>1330</v>
       </c>
-      <c r="C383" s="8">
-        <v>1</v>
-      </c>
-      <c r="D383" s="8">
+      <c r="C383" s="4">
+        <v>1</v>
+      </c>
+      <c r="D383" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B384" s="8">
+      <c r="B384" s="4">
         <v>1338</v>
       </c>
-      <c r="C384" s="8">
-        <v>1</v>
-      </c>
-      <c r="D384" s="8">
+      <c r="C384" s="4">
+        <v>1</v>
+      </c>
+      <c r="D384" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B385" s="8">
+      <c r="B385" s="4">
         <v>1377</v>
       </c>
-      <c r="C385" s="8">
-        <v>1</v>
-      </c>
-      <c r="D385" s="8">
+      <c r="C385" s="4">
+        <v>1</v>
+      </c>
+      <c r="D385" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B386" s="8">
+      <c r="B386" s="4">
         <v>1384</v>
       </c>
-      <c r="C386" s="8">
-        <v>1</v>
-      </c>
-      <c r="D386" s="8">
+      <c r="C386" s="4">
+        <v>1</v>
+      </c>
+      <c r="D386" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B387" s="8">
+      <c r="B387" s="4">
         <v>1408</v>
       </c>
-      <c r="C387" s="8">
-        <v>1</v>
-      </c>
-      <c r="D387" s="8">
+      <c r="C387" s="4">
+        <v>1</v>
+      </c>
+      <c r="D387" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B388" s="8">
+      <c r="B388" s="4">
         <v>1414</v>
       </c>
-      <c r="C388" s="8">
-        <v>1</v>
-      </c>
-      <c r="D388" s="8">
+      <c r="C388" s="4">
+        <v>1</v>
+      </c>
+      <c r="D388" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B389" s="8">
+      <c r="B389" s="4">
         <v>1417</v>
       </c>
-      <c r="C389" s="8">
-        <v>1</v>
-      </c>
-      <c r="D389" s="8">
+      <c r="C389" s="4">
+        <v>1</v>
+      </c>
+      <c r="D389" s="4">
         <f t="shared" ref="D389:D450" si="7">LN(C389)</f>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B390" s="8">
+      <c r="B390" s="4">
         <v>1424</v>
       </c>
-      <c r="C390" s="8">
-        <v>1</v>
-      </c>
-      <c r="D390" s="8">
+      <c r="C390" s="4">
+        <v>1</v>
+      </c>
+      <c r="D390" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B391" s="8">
+      <c r="B391" s="4">
         <v>1428</v>
       </c>
-      <c r="C391" s="8">
-        <v>1</v>
-      </c>
-      <c r="D391" s="8">
+      <c r="C391" s="4">
+        <v>1</v>
+      </c>
+      <c r="D391" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B392" s="8">
+      <c r="B392" s="4">
         <v>1449</v>
       </c>
-      <c r="C392" s="8">
-        <v>1</v>
-      </c>
-      <c r="D392" s="8">
+      <c r="C392" s="4">
+        <v>1</v>
+      </c>
+      <c r="D392" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B393" s="8">
+      <c r="B393" s="4">
         <v>1453</v>
       </c>
-      <c r="C393" s="8">
-        <v>1</v>
-      </c>
-      <c r="D393" s="8">
+      <c r="C393" s="4">
+        <v>1</v>
+      </c>
+      <c r="D393" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B394" s="8">
+      <c r="B394" s="4">
         <v>1461</v>
       </c>
-      <c r="C394" s="8">
-        <v>1</v>
-      </c>
-      <c r="D394" s="8">
+      <c r="C394" s="4">
+        <v>1</v>
+      </c>
+      <c r="D394" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B395" s="8">
+      <c r="B395" s="4">
         <v>1464</v>
       </c>
-      <c r="C395" s="8">
-        <v>1</v>
-      </c>
-      <c r="D395" s="8">
+      <c r="C395" s="4">
+        <v>1</v>
+      </c>
+      <c r="D395" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B396" s="8">
+      <c r="B396" s="4">
         <v>1483</v>
       </c>
-      <c r="C396" s="8">
-        <v>1</v>
-      </c>
-      <c r="D396" s="8">
+      <c r="C396" s="4">
+        <v>1</v>
+      </c>
+      <c r="D396" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B397" s="8">
+      <c r="B397" s="4">
         <v>1502</v>
       </c>
-      <c r="C397" s="8">
-        <v>1</v>
-      </c>
-      <c r="D397" s="8">
+      <c r="C397" s="4">
+        <v>1</v>
+      </c>
+      <c r="D397" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B398" s="8">
+      <c r="B398" s="4">
         <v>1548</v>
       </c>
-      <c r="C398" s="8">
-        <v>1</v>
-      </c>
-      <c r="D398" s="8">
+      <c r="C398" s="4">
+        <v>1</v>
+      </c>
+      <c r="D398" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B399" s="8">
+      <c r="B399" s="4">
         <v>1550</v>
       </c>
-      <c r="C399" s="8">
-        <v>1</v>
-      </c>
-      <c r="D399" s="8">
+      <c r="C399" s="4">
+        <v>1</v>
+      </c>
+      <c r="D399" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B400" s="8">
+      <c r="B400" s="4">
         <v>1556</v>
       </c>
-      <c r="C400" s="8">
-        <v>1</v>
-      </c>
-      <c r="D400" s="8">
+      <c r="C400" s="4">
+        <v>1</v>
+      </c>
+      <c r="D400" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B401" s="8">
+      <c r="B401" s="4">
         <v>1583</v>
       </c>
-      <c r="C401" s="8">
-        <v>1</v>
-      </c>
-      <c r="D401" s="8">
+      <c r="C401" s="4">
+        <v>1</v>
+      </c>
+      <c r="D401" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B402" s="8">
+      <c r="B402" s="4">
         <v>1617</v>
       </c>
-      <c r="C402" s="8">
-        <v>1</v>
-      </c>
-      <c r="D402" s="8">
+      <c r="C402" s="4">
+        <v>1</v>
+      </c>
+      <c r="D402" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B403" s="8">
+      <c r="B403" s="4">
         <v>1624</v>
       </c>
-      <c r="C403" s="8">
-        <v>1</v>
-      </c>
-      <c r="D403" s="8">
+      <c r="C403" s="4">
+        <v>1</v>
+      </c>
+      <c r="D403" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B404" s="8">
+      <c r="B404" s="4">
         <v>1697</v>
       </c>
-      <c r="C404" s="8">
-        <v>1</v>
-      </c>
-      <c r="D404" s="8">
+      <c r="C404" s="4">
+        <v>1</v>
+      </c>
+      <c r="D404" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B405" s="8">
+      <c r="B405" s="4">
         <v>1698</v>
       </c>
-      <c r="C405" s="8">
-        <v>1</v>
-      </c>
-      <c r="D405" s="8">
+      <c r="C405" s="4">
+        <v>1</v>
+      </c>
+      <c r="D405" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B406" s="8">
+      <c r="B406" s="4">
         <v>1709</v>
       </c>
-      <c r="C406" s="8">
-        <v>1</v>
-      </c>
-      <c r="D406" s="8">
+      <c r="C406" s="4">
+        <v>1</v>
+      </c>
+      <c r="D406" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B407" s="8">
+      <c r="B407" s="4">
         <v>1710</v>
       </c>
-      <c r="C407" s="8">
-        <v>1</v>
-      </c>
-      <c r="D407" s="8">
+      <c r="C407" s="4">
+        <v>1</v>
+      </c>
+      <c r="D407" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B408" s="8">
+      <c r="B408" s="4">
         <v>1820</v>
       </c>
-      <c r="C408" s="8">
-        <v>1</v>
-      </c>
-      <c r="D408" s="8">
+      <c r="C408" s="4">
+        <v>1</v>
+      </c>
+      <c r="D408" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B409" s="8">
+      <c r="B409" s="4">
         <v>1851</v>
       </c>
-      <c r="C409" s="8">
-        <v>1</v>
-      </c>
-      <c r="D409" s="8">
+      <c r="C409" s="4">
+        <v>1</v>
+      </c>
+      <c r="D409" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B410" s="8">
+      <c r="B410" s="4">
         <v>1921</v>
       </c>
-      <c r="C410" s="8">
-        <v>1</v>
-      </c>
-      <c r="D410" s="8">
+      <c r="C410" s="4">
+        <v>1</v>
+      </c>
+      <c r="D410" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B411" s="8">
+      <c r="B411" s="4">
         <v>2013</v>
       </c>
-      <c r="C411" s="8">
-        <v>1</v>
-      </c>
-      <c r="D411" s="8">
+      <c r="C411" s="4">
+        <v>1</v>
+      </c>
+      <c r="D411" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B412" s="8">
+      <c r="B412" s="4">
         <v>2027</v>
       </c>
-      <c r="C412" s="8">
-        <v>1</v>
-      </c>
-      <c r="D412" s="8">
+      <c r="C412" s="4">
+        <v>1</v>
+      </c>
+      <c r="D412" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B413" s="8">
+      <c r="B413" s="4">
         <v>2030</v>
       </c>
-      <c r="C413" s="8">
-        <v>1</v>
-      </c>
-      <c r="D413" s="8">
+      <c r="C413" s="4">
+        <v>1</v>
+      </c>
+      <c r="D413" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B414" s="8">
+      <c r="B414" s="4">
         <v>2158</v>
       </c>
-      <c r="C414" s="8">
-        <v>1</v>
-      </c>
-      <c r="D414" s="8">
+      <c r="C414" s="4">
+        <v>1</v>
+      </c>
+      <c r="D414" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B415" s="8">
+      <c r="B415" s="4">
         <v>2253</v>
       </c>
-      <c r="C415" s="8">
-        <v>1</v>
-      </c>
-      <c r="D415" s="8">
+      <c r="C415" s="4">
+        <v>1</v>
+      </c>
+      <c r="D415" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B416" s="8">
+      <c r="B416" s="4">
         <v>2274</v>
       </c>
-      <c r="C416" s="8">
-        <v>1</v>
-      </c>
-      <c r="D416" s="8">
+      <c r="C416" s="4">
+        <v>1</v>
+      </c>
+      <c r="D416" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B417" s="8">
+      <c r="B417" s="4">
         <v>2416</v>
       </c>
-      <c r="C417" s="8">
-        <v>1</v>
-      </c>
-      <c r="D417" s="8">
+      <c r="C417" s="4">
+        <v>1</v>
+      </c>
+      <c r="D417" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B418" s="8">
+      <c r="B418" s="4">
         <v>2459</v>
       </c>
-      <c r="C418" s="8">
-        <v>1</v>
-      </c>
-      <c r="D418" s="8">
+      <c r="C418" s="4">
+        <v>1</v>
+      </c>
+      <c r="D418" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B419" s="8">
+      <c r="B419" s="4">
         <v>2527</v>
       </c>
-      <c r="C419" s="8">
+      <c r="C419" s="4">
         <v>2</v>
       </c>
-      <c r="D419" s="8">
+      <c r="D419" s="4">
         <f t="shared" si="7"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B420" s="8">
+      <c r="B420" s="4">
         <v>2921</v>
       </c>
-      <c r="C420" s="8">
-        <v>1</v>
-      </c>
-      <c r="D420" s="8">
+      <c r="C420" s="4">
+        <v>1</v>
+      </c>
+      <c r="D420" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B421" s="8">
+      <c r="B421" s="4">
         <v>3177</v>
       </c>
-      <c r="C421" s="8">
-        <v>1</v>
-      </c>
-      <c r="D421" s="8">
+      <c r="C421" s="4">
+        <v>1</v>
+      </c>
+      <c r="D421" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B422" s="8">
+      <c r="B422" s="4">
         <v>3347</v>
       </c>
-      <c r="C422" s="8">
-        <v>1</v>
-      </c>
-      <c r="D422" s="8">
+      <c r="C422" s="4">
+        <v>1</v>
+      </c>
+      <c r="D422" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B423" s="8">
+      <c r="B423" s="4">
         <v>3569</v>
       </c>
-      <c r="C423" s="8">
+      <c r="C423" s="4">
         <v>2</v>
       </c>
-      <c r="D423" s="8">
+      <c r="D423" s="4">
         <f t="shared" si="7"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B424" s="8">
+      <c r="B424" s="4">
         <v>3852</v>
       </c>
-      <c r="C424" s="8">
-        <v>1</v>
-      </c>
-      <c r="D424" s="8">
+      <c r="C424" s="4">
+        <v>1</v>
+      </c>
+      <c r="D424" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B425" s="8">
+      <c r="B425" s="4">
         <v>4022</v>
       </c>
-      <c r="C425" s="8">
+      <c r="C425" s="4">
         <v>2</v>
       </c>
-      <c r="D425" s="8">
+      <c r="D425" s="4">
         <f t="shared" si="7"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B426" s="8">
+      <c r="B426" s="4">
         <v>4119</v>
       </c>
-      <c r="C426" s="8">
-        <v>1</v>
-      </c>
-      <c r="D426" s="8">
+      <c r="C426" s="4">
+        <v>1</v>
+      </c>
+      <c r="D426" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B427" s="8">
+      <c r="B427" s="4">
         <v>4219</v>
       </c>
-      <c r="C427" s="8">
-        <v>1</v>
-      </c>
-      <c r="D427" s="8">
+      <c r="C427" s="4">
+        <v>1</v>
+      </c>
+      <c r="D427" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B428" s="8">
+      <c r="B428" s="4">
         <v>4245</v>
       </c>
-      <c r="C428" s="8">
-        <v>1</v>
-      </c>
-      <c r="D428" s="8">
+      <c r="C428" s="4">
+        <v>1</v>
+      </c>
+      <c r="D428" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B429" s="8">
+      <c r="B429" s="4">
         <v>4376</v>
       </c>
-      <c r="C429" s="8">
-        <v>1</v>
-      </c>
-      <c r="D429" s="8">
+      <c r="C429" s="4">
+        <v>1</v>
+      </c>
+      <c r="D429" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B430" s="8">
+      <c r="B430" s="4">
         <v>4542</v>
       </c>
-      <c r="C430" s="8">
-        <v>1</v>
-      </c>
-      <c r="D430" s="8">
+      <c r="C430" s="4">
+        <v>1</v>
+      </c>
+      <c r="D430" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B431" s="8">
+      <c r="B431" s="4">
         <v>4585</v>
       </c>
-      <c r="C431" s="8">
-        <v>1</v>
-      </c>
-      <c r="D431" s="8">
+      <c r="C431" s="4">
+        <v>1</v>
+      </c>
+      <c r="D431" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B432" s="8">
+      <c r="B432" s="4">
         <v>4989</v>
       </c>
-      <c r="C432" s="8">
-        <v>1</v>
-      </c>
-      <c r="D432" s="8">
+      <c r="C432" s="4">
+        <v>1</v>
+      </c>
+      <c r="D432" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B433" s="8">
+      <c r="B433" s="4">
         <v>6571</v>
       </c>
-      <c r="C433" s="8">
-        <v>1</v>
-      </c>
-      <c r="D433" s="8">
+      <c r="C433" s="4">
+        <v>1</v>
+      </c>
+      <c r="D433" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B434" s="8">
+      <c r="B434" s="4">
         <v>6866</v>
       </c>
-      <c r="C434" s="8">
+      <c r="C434" s="4">
         <v>2</v>
       </c>
-      <c r="D434" s="8">
+      <c r="D434" s="4">
         <f t="shared" si="7"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B435" s="8">
+      <c r="B435" s="4">
         <v>6888</v>
       </c>
-      <c r="C435" s="8">
-        <v>1</v>
-      </c>
-      <c r="D435" s="8">
+      <c r="C435" s="4">
+        <v>1</v>
+      </c>
+      <c r="D435" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B436" s="8">
+      <c r="B436" s="4">
         <v>6890</v>
       </c>
-      <c r="C436" s="8">
-        <v>1</v>
-      </c>
-      <c r="D436" s="8">
+      <c r="C436" s="4">
+        <v>1</v>
+      </c>
+      <c r="D436" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B437" s="8">
+      <c r="B437" s="4">
         <v>7303</v>
       </c>
-      <c r="C437" s="8">
-        <v>1</v>
-      </c>
-      <c r="D437" s="8">
+      <c r="C437" s="4">
+        <v>1</v>
+      </c>
+      <c r="D437" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B438" s="8">
+      <c r="B438" s="4">
         <v>7599</v>
       </c>
-      <c r="C438" s="8">
-        <v>1</v>
-      </c>
-      <c r="D438" s="8">
+      <c r="C438" s="4">
+        <v>1</v>
+      </c>
+      <c r="D438" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B439" s="8">
+      <c r="B439" s="4">
         <v>9666</v>
       </c>
-      <c r="C439" s="8">
-        <v>1</v>
-      </c>
-      <c r="D439" s="8">
+      <c r="C439" s="4">
+        <v>1</v>
+      </c>
+      <c r="D439" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B440" s="8">
+      <c r="B440" s="4">
         <v>12604</v>
       </c>
-      <c r="C440" s="8">
-        <v>1</v>
-      </c>
-      <c r="D440" s="8">
+      <c r="C440" s="4">
+        <v>1</v>
+      </c>
+      <c r="D440" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B441" s="8">
+      <c r="B441" s="4">
         <v>13061</v>
       </c>
-      <c r="C441" s="8">
+      <c r="C441" s="4">
         <v>2</v>
       </c>
-      <c r="D441" s="8">
+      <c r="D441" s="4">
         <f t="shared" si="7"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B442" s="8">
+      <c r="B442" s="4">
         <v>15161</v>
       </c>
-      <c r="C442" s="8">
-        <v>1</v>
-      </c>
-      <c r="D442" s="8">
+      <c r="C442" s="4">
+        <v>1</v>
+      </c>
+      <c r="D442" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B443" s="8">
+      <c r="B443" s="4">
         <v>16489</v>
       </c>
-      <c r="C443" s="8">
-        <v>1</v>
-      </c>
-      <c r="D443" s="8">
+      <c r="C443" s="4">
+        <v>1</v>
+      </c>
+      <c r="D443" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B444" s="8">
+      <c r="B444" s="4">
         <v>19939</v>
       </c>
-      <c r="C444" s="8">
-        <v>1</v>
-      </c>
-      <c r="D444" s="8">
+      <c r="C444" s="4">
+        <v>1</v>
+      </c>
+      <c r="D444" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B445" s="8">
+      <c r="B445" s="4">
         <v>20871</v>
       </c>
-      <c r="C445" s="8">
-        <v>1</v>
-      </c>
-      <c r="D445" s="8">
+      <c r="C445" s="4">
+        <v>1</v>
+      </c>
+      <c r="D445" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B446" s="8">
+      <c r="B446" s="4">
         <v>21214</v>
       </c>
-      <c r="C446" s="8">
-        <v>1</v>
-      </c>
-      <c r="D446" s="8">
+      <c r="C446" s="4">
+        <v>1</v>
+      </c>
+      <c r="D446" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B447" s="8">
+      <c r="B447" s="4">
         <v>22967</v>
       </c>
-      <c r="C447" s="8">
-        <v>1</v>
-      </c>
-      <c r="D447" s="8">
+      <c r="C447" s="4">
+        <v>1</v>
+      </c>
+      <c r="D447" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B448" s="8">
+      <c r="B448" s="4">
         <v>26280</v>
       </c>
-      <c r="C448" s="8">
-        <v>1</v>
-      </c>
-      <c r="D448" s="8">
+      <c r="C448" s="4">
+        <v>1</v>
+      </c>
+      <c r="D448" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B449" s="8">
+      <c r="B449" s="4">
         <v>53965</v>
       </c>
-      <c r="C449" s="8">
-        <v>1</v>
-      </c>
-      <c r="D449" s="8">
+      <c r="C449" s="4">
+        <v>1</v>
+      </c>
+      <c r="D449" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="2:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B450" s="9">
+      <c r="B450" s="5">
         <v>89111</v>
       </c>
-      <c r="C450" s="9">
-        <v>1</v>
-      </c>
-      <c r="D450" s="9">
+      <c r="C450" s="5">
+        <v>1</v>
+      </c>
+      <c r="D450" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C451" s="1">
+        <f>SUM(C4:C450)</f>
+        <v>3455499</v>
       </c>
     </row>
   </sheetData>

--- a/doc/frequency.xlsx
+++ b/doc/frequency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGRAMS\MSYS64\home\hyf\rsync-log-analyzer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEA85B-07D0-4582-966A-6E81F4DC74D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB5E13-BD20-4825-9717-4FCA40E07EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" activeTab="2" xr2:uid="{B3559C3C-14DE-4E87-9ECA-6507E27D6041}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>时间/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>ln(频率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -191,13 +199,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +294,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6934,16 +7028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4312</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12938</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>612475</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>621101</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>172529</xdr:rowOff>
+      <xdr:rowOff>155276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6970,16 +7064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8627</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181154</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>616790</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>608164</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>8627</xdr:rowOff>
+      <xdr:rowOff>25880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7306,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC40153-9979-47C6-8F79-9A04AAFD4D7A}">
-  <dimension ref="B1:H451"/>
+  <dimension ref="B1:L451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7318,10 +7412,10 @@
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -7332,8 +7426,13 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7352,8 +7451,17 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -7374,8 +7482,18 @@
         <f>LN(G4)</f>
         <v>17.432324245510092</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="9">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <f>LN(K4)</f>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -7383,7 +7501,7 @@
         <v>88965</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D68" si="0">LN(C5)</f>
+        <f>LN(C5)</f>
         <v>11.395998312940936</v>
       </c>
       <c r="F5" s="4">
@@ -7393,11 +7511,21 @@
         <v>40513</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H59" si="1">LN(G5)</f>
+        <f t="shared" ref="H5:H59" si="0">LN(G5)</f>
         <v>10.609378189243436</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L7" si="1">LN(K5)</f>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -7405,7 +7533,7 @@
         <v>7010</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C6)</f>
         <v>8.8550929800286351</v>
       </c>
       <c r="F6" s="4">
@@ -7415,11 +7543,21 @@
         <v>1191</v>
       </c>
       <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0825485693552999</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>337</v>
+      </c>
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
-        <v>7.0825485693552999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.8200829303523616</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -7427,7 +7565,7 @@
         <v>3060</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C7)</f>
         <v>8.0261701949464257</v>
       </c>
       <c r="F7" s="4">
@@ -7437,11 +7575,21 @@
         <v>310</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7365722974791922</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>472433</v>
+      </c>
+      <c r="L7" s="14">
+        <f>LN(K7)</f>
+        <v>13.065651216919715</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -7449,7 +7597,7 @@
         <v>1725</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C8)</f>
         <v>7.4529823294654598</v>
       </c>
       <c r="F8" s="4">
@@ -7459,11 +7607,11 @@
         <v>167</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1179938124167554</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -7471,7 +7619,7 @@
         <v>1066</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C9)</f>
         <v>6.9716686047257896</v>
       </c>
       <c r="F9" s="4">
@@ -7481,11 +7629,16 @@
         <v>124</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8202815656050371</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -7493,7 +7646,7 @@
         <v>731</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C10)</f>
         <v>6.5944134597497781</v>
       </c>
       <c r="F10" s="4">
@@ -7503,11 +7656,20 @@
         <v>147</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.990432586778736</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -7515,7 +7677,7 @@
         <v>588</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C11)</f>
         <v>6.3767269478986268</v>
       </c>
       <c r="F11" s="4">
@@ -7525,11 +7687,21 @@
         <v>193</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2626901889048856</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16">
+        <f>LN(K11)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -7537,7 +7709,7 @@
         <v>510</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C12)</f>
         <v>6.2344107257183712</v>
       </c>
       <c r="F12" s="4">
@@ -7547,11 +7719,11 @@
         <v>223</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4071717714601188</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -7559,7 +7731,7 @@
         <v>384</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C13)</f>
         <v>5.9506425525877269</v>
       </c>
       <c r="F13" s="4">
@@ -7569,11 +7741,11 @@
         <v>231</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4424177105217932</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -7581,7 +7753,7 @@
         <v>289</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C14)</f>
         <v>5.6664266881124323</v>
       </c>
       <c r="F14" s="4">
@@ -7591,11 +7763,11 @@
         <v>188</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2364419628299492</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -7603,7 +7775,7 @@
         <v>233</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C15)</f>
         <v>5.4510384535657002</v>
       </c>
       <c r="F15" s="4">
@@ -7613,11 +7785,11 @@
         <v>167</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1179938124167554</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -7625,7 +7797,7 @@
         <v>221</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C16)</f>
         <v>5.3981627015177525</v>
       </c>
       <c r="F16" s="4">
@@ -7635,7 +7807,7 @@
         <v>107</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6728288344619058</v>
       </c>
     </row>
@@ -7647,7 +7819,7 @@
         <v>171</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C17)</f>
         <v>5.1416635565026603</v>
       </c>
       <c r="F17" s="4">
@@ -7657,7 +7829,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2046926193909657</v>
       </c>
     </row>
@@ -7669,7 +7841,7 @@
         <v>145</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C18)</f>
         <v>4.9767337424205742</v>
       </c>
       <c r="F18" s="4">
@@ -7679,7 +7851,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0253516907351496</v>
       </c>
     </row>
@@ -7691,7 +7863,7 @@
         <v>145</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C19)</f>
         <v>4.9767337424205742</v>
       </c>
       <c r="F19" s="4">
@@ -7701,7 +7873,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9318256327243257</v>
       </c>
     </row>
@@ -7713,7 +7885,7 @@
         <v>125</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C20)</f>
         <v>4.8283137373023015</v>
       </c>
       <c r="F20" s="4">
@@ -7723,7 +7895,7 @@
         <v>34</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5263605246161616</v>
       </c>
     </row>
@@ -7735,7 +7907,7 @@
         <v>113</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C21)</f>
         <v>4.7273878187123408</v>
       </c>
       <c r="F21" s="4">
@@ -7745,7 +7917,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5263605246161616</v>
       </c>
     </row>
@@ -7757,7 +7929,7 @@
         <v>80</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C22)</f>
         <v>4.3820266346738812</v>
       </c>
       <c r="F22" s="4">
@@ -7767,7 +7939,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3672958299864741</v>
       </c>
     </row>
@@ -7779,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C23)</f>
         <v>4.5432947822700038</v>
       </c>
       <c r="F23" s="4">
@@ -7789,7 +7961,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6728288344619058</v>
       </c>
     </row>
@@ -7801,7 +7973,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C24)</f>
         <v>4.5432947822700038</v>
       </c>
       <c r="F24" s="4">
@@ -7811,7 +7983,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5649493574615367</v>
       </c>
     </row>
@@ -7823,7 +7995,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C25)</f>
         <v>4.2484952420493594</v>
       </c>
       <c r="F25" s="4">
@@ -7833,7 +8005,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5649493574615367</v>
       </c>
     </row>
@@ -7845,7 +8017,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C26)</f>
         <v>4.1271343850450917</v>
       </c>
       <c r="F26" s="4">
@@ -7855,7 +8027,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3978952727983707</v>
       </c>
     </row>
@@ -7867,7 +8039,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C27)</f>
         <v>4.2341065045972597</v>
       </c>
       <c r="F27" s="4">
@@ -7877,7 +8049,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
     </row>
@@ -7889,7 +8061,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C28)</f>
         <v>3.784189633918261</v>
       </c>
       <c r="F28" s="4">
@@ -7899,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -7911,7 +8083,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C29)</f>
         <v>3.970291913552122</v>
       </c>
       <c r="F29" s="4">
@@ -7921,7 +8093,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -7933,7 +8105,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C30)</f>
         <v>4.0430512678345503</v>
       </c>
       <c r="F30" s="4">
@@ -7943,7 +8115,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -7955,7 +8127,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C31)</f>
         <v>3.9512437185814275</v>
       </c>
       <c r="F31" s="4">
@@ -7965,7 +8137,7 @@
         <v>9</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -7977,7 +8149,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C32)</f>
         <v>4.0943445622221004</v>
       </c>
       <c r="F32" s="4">
@@ -7987,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -7999,7 +8171,7 @@
         <v>59</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C33)</f>
         <v>4.0775374439057197</v>
       </c>
       <c r="F33" s="4">
@@ -8009,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -8021,7 +8193,7 @@
         <v>46</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C34)</f>
         <v>3.8286413964890951</v>
       </c>
       <c r="F34" s="4">
@@ -8031,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8043,7 +8215,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C35)</f>
         <v>3.5835189384561099</v>
       </c>
       <c r="F35" s="4">
@@ -8053,7 +8225,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -8065,7 +8237,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C36)</f>
         <v>3.8712010109078911</v>
       </c>
       <c r="F36" s="4">
@@ -8075,7 +8247,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4849066497880004</v>
       </c>
     </row>
@@ -8087,7 +8259,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C37)</f>
         <v>3.6635616461296463</v>
       </c>
       <c r="F37" s="4">
@@ -8097,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8109,7 +8281,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C38)</f>
         <v>3.4965075614664802</v>
       </c>
       <c r="F38" s="4">
@@ -8119,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8131,7 +8303,7 @@
         <v>29</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C39)</f>
         <v>3.3672958299864741</v>
       </c>
       <c r="F39" s="4">
@@ -8141,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8153,7 +8325,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C40)</f>
         <v>3.5263605246161616</v>
       </c>
       <c r="F40" s="4">
@@ -8163,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8175,7 +8347,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C41)</f>
         <v>3.4011973816621555</v>
       </c>
       <c r="F41" s="4">
@@ -8185,7 +8357,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -8197,7 +8369,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C42)</f>
         <v>3.7612001156935624</v>
       </c>
       <c r="F42" s="4">
@@ -8207,7 +8379,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -8219,7 +8391,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C43)</f>
         <v>3.0910424533583161</v>
       </c>
       <c r="F43" s="4">
@@ -8229,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8241,7 +8413,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C44)</f>
         <v>3.0910424533583161</v>
       </c>
       <c r="F44" s="4">
@@ -8251,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8263,7 +8435,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C45)</f>
         <v>3.4011973816621555</v>
       </c>
       <c r="F45" s="4">
@@ -8273,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8285,7 +8457,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C46)</f>
         <v>2.7725887222397811</v>
       </c>
       <c r="F46" s="4">
@@ -8295,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -8307,7 +8479,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C47)</f>
         <v>3.4339872044851463</v>
       </c>
       <c r="F47" s="4">
@@ -8317,7 +8489,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -8329,7 +8501,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C48)</f>
         <v>3.1780538303479458</v>
       </c>
       <c r="F48" s="4">
@@ -8339,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -8351,7 +8523,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C49)</f>
         <v>2.9444389791664403</v>
       </c>
       <c r="F49" s="4">
@@ -8361,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8373,7 +8545,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C50)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="F50" s="4">
@@ -8383,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8395,7 +8567,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C51)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="F51" s="4">
@@ -8405,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8417,7 +8589,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C52)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="F52" s="4">
@@ -8427,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8439,7 +8611,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C53)</f>
         <v>2.6390573296152584</v>
       </c>
       <c r="F53" s="4">
@@ -8449,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8461,7 +8633,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C54)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="F54" s="4">
@@ -8471,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8483,7 +8655,7 @@
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C55)</f>
         <v>2.8903717578961645</v>
       </c>
       <c r="F55" s="4">
@@ -8493,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8505,7 +8677,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C56)</f>
         <v>2.9957322735539909</v>
       </c>
       <c r="F56" s="4">
@@ -8515,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8527,7 +8699,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C57)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="F57" s="4">
@@ -8537,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8549,7 +8721,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C58)</f>
         <v>1.791759469228055</v>
       </c>
       <c r="F58" s="4">
@@ -8559,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8571,7 +8743,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C59)</f>
         <v>1.9459101490553132</v>
       </c>
       <c r="F59" s="5">
@@ -8581,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8593,7 +8765,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C60)</f>
         <v>1.3862943611198906</v>
       </c>
       <c r="G60">
@@ -8609,7 +8781,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C61)</f>
         <v>2.7725887222397811</v>
       </c>
     </row>
@@ -8621,7 +8793,7 @@
         <v>14</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C62)</f>
         <v>2.6390573296152584</v>
       </c>
     </row>
@@ -8633,7 +8805,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C63)</f>
         <v>2.3978952727983707</v>
       </c>
     </row>
@@ -8645,7 +8817,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C64)</f>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -8657,7 +8829,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C65)</f>
         <v>2.8332133440562162</v>
       </c>
     </row>
@@ -8669,7 +8841,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C66)</f>
         <v>2.7725887222397811</v>
       </c>
     </row>
@@ -8681,7 +8853,7 @@
         <v>29</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C67)</f>
         <v>3.3672958299864741</v>
       </c>
     </row>
@@ -8693,7 +8865,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="0"/>
+        <f>LN(C68)</f>
         <v>2.4849066497880004</v>
       </c>
     </row>
@@ -8705,7 +8877,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" ref="D69:D132" si="2">LN(C69)</f>
+        <f>LN(C69)</f>
         <v>2.4849066497880004</v>
       </c>
     </row>
@@ -8717,7 +8889,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C70)</f>
         <v>2.3978952727983707</v>
       </c>
     </row>
@@ -8729,7 +8901,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C71)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -8741,7 +8913,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C72)</f>
         <v>2.5649493574615367</v>
       </c>
     </row>
@@ -8753,7 +8925,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C73)</f>
         <v>2.4849066497880004</v>
       </c>
     </row>
@@ -8765,7 +8937,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C74)</f>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -8777,7 +8949,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C75)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -8789,7 +8961,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C76)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -8801,7 +8973,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C77)</f>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -8813,7 +8985,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C78)</f>
         <v>2.3978952727983707</v>
       </c>
     </row>
@@ -8825,7 +8997,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C79)</f>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -8837,7 +9009,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C80)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -8849,7 +9021,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C81)</f>
         <v>2.3978952727983707</v>
       </c>
     </row>
@@ -8861,7 +9033,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C82)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -8873,7 +9045,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C83)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -8885,7 +9057,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C84)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -8897,7 +9069,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C85)</f>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -8909,7 +9081,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C86)</f>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -8921,7 +9093,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C87)</f>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -8933,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C88)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -8945,7 +9117,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C89)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -8957,7 +9129,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C90)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -8969,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C91)</f>
         <v>0</v>
       </c>
     </row>
@@ -8981,7 +9153,7 @@
         <v>10</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C92)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -8993,7 +9165,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C93)</f>
         <v>1.791759469228055</v>
       </c>
     </row>
@@ -9005,7 +9177,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C94)</f>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -9017,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C95)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9029,7 +9201,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C96)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -9041,7 +9213,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C97)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9053,7 +9225,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C98)</f>
         <v>2.1972245773362196</v>
       </c>
     </row>
@@ -9065,7 +9237,7 @@
         <v>3</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C99)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9077,7 +9249,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C100)</f>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -9089,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C101)</f>
         <v>0</v>
       </c>
     </row>
@@ -9101,7 +9273,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C102)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9113,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C103)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9125,7 +9297,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C104)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9137,7 +9309,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C105)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9149,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C106)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9161,7 +9333,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C107)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -9173,7 +9345,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C108)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9185,7 +9357,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C109)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9197,7 +9369,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C110)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9209,7 +9381,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C111)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9221,7 +9393,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C112)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9233,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C113)</f>
         <v>0</v>
       </c>
     </row>
@@ -9245,7 +9417,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C114)</f>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -9257,7 +9429,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C115)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9269,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C116)</f>
         <v>0</v>
       </c>
     </row>
@@ -9281,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C117)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9293,7 +9465,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C118)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9305,7 +9477,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C119)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9317,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C120)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9329,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C121)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9341,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C122)</f>
         <v>0</v>
       </c>
     </row>
@@ -9353,7 +9525,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C123)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9365,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C124)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9377,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C125)</f>
         <v>0</v>
       </c>
     </row>
@@ -9389,7 +9561,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C126)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -9401,7 +9573,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C127)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9413,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C128)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9425,7 +9597,7 @@
         <v>10</v>
       </c>
       <c r="D129" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C129)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -9437,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C130)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9449,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C131)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9461,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="4">
-        <f t="shared" si="2"/>
+        <f>LN(C132)</f>
         <v>0</v>
       </c>
     </row>
@@ -9473,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="4">
-        <f t="shared" ref="D133:D196" si="3">LN(C133)</f>
+        <f>LN(C133)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9485,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C134)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9497,7 +9669,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C135)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9509,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C136)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9521,7 +9693,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C137)</f>
         <v>1.9459101490553132</v>
       </c>
     </row>
@@ -9533,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C138)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9545,7 +9717,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C139)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9557,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C140)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9569,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C141)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9581,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C142)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9593,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C143)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9605,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C144)</f>
         <v>0</v>
       </c>
     </row>
@@ -9617,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C145)</f>
         <v>0</v>
       </c>
     </row>
@@ -9629,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C146)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9641,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C147)</f>
         <v>0</v>
       </c>
     </row>
@@ -9653,7 +9825,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C148)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -9665,7 +9837,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C149)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9677,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C150)</f>
         <v>0</v>
       </c>
     </row>
@@ -9689,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C151)</f>
         <v>0</v>
       </c>
     </row>
@@ -9701,7 +9873,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C152)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9713,7 +9885,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C153)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9725,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C154)</f>
         <v>0</v>
       </c>
     </row>
@@ -9737,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C155)</f>
         <v>0</v>
       </c>
     </row>
@@ -9749,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C156)</f>
         <v>0</v>
       </c>
     </row>
@@ -9761,7 +9933,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C157)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9773,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C158)</f>
         <v>0</v>
       </c>
     </row>
@@ -9785,7 +9957,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C159)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9797,7 +9969,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C160)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9809,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C161)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9821,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C162)</f>
         <v>0</v>
       </c>
     </row>
@@ -9833,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C163)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9845,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C164)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9857,7 +10029,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C165)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9869,7 +10041,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C166)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9881,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="D167" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C167)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9893,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C168)</f>
         <v>0</v>
       </c>
     </row>
@@ -9905,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C169)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9917,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C170)</f>
         <v>0</v>
       </c>
     </row>
@@ -9929,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C171)</f>
         <v>0</v>
       </c>
     </row>
@@ -9941,7 +10113,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C172)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -9953,7 +10125,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C173)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -9965,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C174)</f>
         <v>0</v>
       </c>
     </row>
@@ -9977,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C175)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -9989,7 +10161,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C176)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10001,7 +10173,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C177)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10013,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C178)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10025,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C179)</f>
         <v>0</v>
       </c>
     </row>
@@ -10037,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C180)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10049,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C181)</f>
         <v>0</v>
       </c>
     </row>
@@ -10061,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C182)</f>
         <v>0</v>
       </c>
     </row>
@@ -10073,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C183)</f>
         <v>0</v>
       </c>
     </row>
@@ -10085,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C184)</f>
         <v>0</v>
       </c>
     </row>
@@ -10097,7 +10269,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C185)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10109,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C186)</f>
         <v>0</v>
       </c>
     </row>
@@ -10121,7 +10293,7 @@
         <v>8</v>
       </c>
       <c r="D187" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C187)</f>
         <v>2.0794415416798357</v>
       </c>
     </row>
@@ -10133,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="D188" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C188)</f>
         <v>2.3025850929940459</v>
       </c>
     </row>
@@ -10145,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C189)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10157,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="D190" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C190)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10169,7 +10341,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C191)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10181,7 +10353,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C192)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -10193,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C193)</f>
         <v>0</v>
       </c>
     </row>
@@ -10205,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C194)</f>
         <v>0</v>
       </c>
     </row>
@@ -10217,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C195)</f>
         <v>0</v>
       </c>
     </row>
@@ -10229,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="4">
-        <f t="shared" si="3"/>
+        <f>LN(C196)</f>
         <v>0</v>
       </c>
     </row>
@@ -10241,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="4">
-        <f t="shared" ref="D197:D260" si="4">LN(C197)</f>
+        <f>LN(C197)</f>
         <v>0</v>
       </c>
     </row>
@@ -10253,7 +10425,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C198)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10265,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C199)</f>
         <v>0</v>
       </c>
     </row>
@@ -10277,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C200)</f>
         <v>0</v>
       </c>
     </row>
@@ -10289,7 +10461,7 @@
         <v>2</v>
       </c>
       <c r="D201" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C201)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10301,7 +10473,7 @@
         <v>3</v>
       </c>
       <c r="D202" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C202)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -10313,7 +10485,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C203)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -10325,7 +10497,7 @@
         <v>2</v>
       </c>
       <c r="D204" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C204)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10337,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C205)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -10349,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C206)</f>
         <v>0</v>
       </c>
     </row>
@@ -10361,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C207)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10373,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="D208" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C208)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10385,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="D209" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C209)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10397,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C210)</f>
         <v>0</v>
       </c>
     </row>
@@ -10409,7 +10581,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C211)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10421,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C212)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10433,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C213)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10445,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C214)</f>
         <v>0</v>
       </c>
     </row>
@@ -10457,7 +10629,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C215)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10469,7 +10641,7 @@
         <v>2</v>
       </c>
       <c r="D216" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C216)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10481,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="D217" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C217)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10493,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C218)</f>
         <v>0</v>
       </c>
     </row>
@@ -10505,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C219)</f>
         <v>0</v>
       </c>
     </row>
@@ -10517,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C220)</f>
         <v>0</v>
       </c>
     </row>
@@ -10529,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C221)</f>
         <v>0</v>
       </c>
     </row>
@@ -10541,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C222)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10553,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C223)</f>
         <v>0</v>
       </c>
     </row>
@@ -10565,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C224)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10577,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C225)</f>
         <v>0</v>
       </c>
     </row>
@@ -10589,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C226)</f>
         <v>0</v>
       </c>
     </row>
@@ -10601,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C227)</f>
         <v>0</v>
       </c>
     </row>
@@ -10613,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C228)</f>
         <v>0</v>
       </c>
     </row>
@@ -10625,7 +10797,7 @@
         <v>2</v>
       </c>
       <c r="D229" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C229)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10637,7 +10809,7 @@
         <v>2</v>
       </c>
       <c r="D230" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C230)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10649,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C231)</f>
         <v>0</v>
       </c>
     </row>
@@ -10661,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C232)</f>
         <v>0</v>
       </c>
     </row>
@@ -10673,7 +10845,7 @@
         <v>2</v>
       </c>
       <c r="D233" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C233)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10685,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C234)</f>
         <v>0</v>
       </c>
     </row>
@@ -10697,7 +10869,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C235)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -10709,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C236)</f>
         <v>0</v>
       </c>
     </row>
@@ -10721,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="D237" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C237)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10733,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="D238" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C238)</f>
         <v>0</v>
       </c>
     </row>
@@ -10745,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="D239" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C239)</f>
         <v>0</v>
       </c>
     </row>
@@ -10757,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="D240" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C240)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10769,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="D241" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C241)</f>
         <v>0</v>
       </c>
     </row>
@@ -10781,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C242)</f>
         <v>0</v>
       </c>
     </row>
@@ -10793,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="D243" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C243)</f>
         <v>0</v>
       </c>
     </row>
@@ -10805,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C244)</f>
         <v>0</v>
       </c>
     </row>
@@ -10817,7 +10989,7 @@
         <v>2</v>
       </c>
       <c r="D245" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C245)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10829,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C246)</f>
         <v>0</v>
       </c>
     </row>
@@ -10841,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C247)</f>
         <v>0</v>
       </c>
     </row>
@@ -10853,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="D248" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C248)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10865,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C249)</f>
         <v>0</v>
       </c>
     </row>
@@ -10877,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C250)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10889,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C251)</f>
         <v>0</v>
       </c>
     </row>
@@ -10901,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C252)</f>
         <v>0</v>
       </c>
     </row>
@@ -10913,7 +11085,7 @@
         <v>4</v>
       </c>
       <c r="D253" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C253)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -10925,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C254)</f>
         <v>0</v>
       </c>
     </row>
@@ -10937,7 +11109,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C255)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -10949,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C256)</f>
         <v>0</v>
       </c>
     </row>
@@ -10961,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C257)</f>
         <v>0</v>
       </c>
     </row>
@@ -10973,7 +11145,7 @@
         <v>3</v>
       </c>
       <c r="D258" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C258)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -10985,7 +11157,7 @@
         <v>5</v>
       </c>
       <c r="D259" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C259)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -10997,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="4">
-        <f t="shared" si="4"/>
+        <f>LN(C260)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11009,7 +11181,7 @@
         <v>2</v>
       </c>
       <c r="D261" s="4">
-        <f t="shared" ref="D261:D324" si="5">LN(C261)</f>
+        <f>LN(C261)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11021,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="D262" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C262)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11033,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C263)</f>
         <v>0</v>
       </c>
     </row>
@@ -11045,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C264)</f>
         <v>0</v>
       </c>
     </row>
@@ -11057,7 +11229,7 @@
         <v>3</v>
       </c>
       <c r="D265" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C265)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11069,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C266)</f>
         <v>0</v>
       </c>
     </row>
@@ -11081,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="D267" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C267)</f>
         <v>0</v>
       </c>
     </row>
@@ -11093,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C268)</f>
         <v>0</v>
       </c>
     </row>
@@ -11105,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C269)</f>
         <v>0</v>
       </c>
     </row>
@@ -11117,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C270)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11129,7 +11301,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C271)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11141,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C272)</f>
         <v>0</v>
       </c>
     </row>
@@ -11153,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C273)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11165,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="D274" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C274)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11177,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C275)</f>
         <v>0</v>
       </c>
     </row>
@@ -11189,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C276)</f>
         <v>0</v>
       </c>
     </row>
@@ -11201,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C277)</f>
         <v>0</v>
       </c>
     </row>
@@ -11213,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C278)</f>
         <v>0</v>
       </c>
     </row>
@@ -11225,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C279)</f>
         <v>0</v>
       </c>
     </row>
@@ -11237,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C280)</f>
         <v>0</v>
       </c>
     </row>
@@ -11249,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C281)</f>
         <v>0</v>
       </c>
     </row>
@@ -11261,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C282)</f>
         <v>0</v>
       </c>
     </row>
@@ -11273,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C283)</f>
         <v>0</v>
       </c>
     </row>
@@ -11285,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C284)</f>
         <v>0</v>
       </c>
     </row>
@@ -11297,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C285)</f>
         <v>0</v>
       </c>
     </row>
@@ -11309,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C286)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11321,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C287)</f>
         <v>0</v>
       </c>
     </row>
@@ -11333,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C288)</f>
         <v>0</v>
       </c>
     </row>
@@ -11345,7 +11517,7 @@
         <v>3</v>
       </c>
       <c r="D289" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C289)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11357,7 +11529,7 @@
         <v>3</v>
       </c>
       <c r="D290" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C290)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11369,7 +11541,7 @@
         <v>2</v>
       </c>
       <c r="D291" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C291)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11381,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C292)</f>
         <v>0</v>
       </c>
     </row>
@@ -11393,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C293)</f>
         <v>0</v>
       </c>
     </row>
@@ -11405,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="D294" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C294)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -11417,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C295)</f>
         <v>0</v>
       </c>
     </row>
@@ -11429,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="D296" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C296)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11441,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C297)</f>
         <v>0</v>
       </c>
     </row>
@@ -11453,7 +11625,7 @@
         <v>2</v>
       </c>
       <c r="D298" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C298)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11465,7 +11637,7 @@
         <v>3</v>
       </c>
       <c r="D299" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C299)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11477,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C300)</f>
         <v>0</v>
       </c>
     </row>
@@ -11489,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C301)</f>
         <v>0</v>
       </c>
     </row>
@@ -11501,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C302)</f>
         <v>0</v>
       </c>
     </row>
@@ -11513,7 +11685,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C303)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11525,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C304)</f>
         <v>0</v>
       </c>
     </row>
@@ -11537,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C305)</f>
         <v>0</v>
       </c>
     </row>
@@ -11549,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C306)</f>
         <v>0</v>
       </c>
     </row>
@@ -11561,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C307)</f>
         <v>0</v>
       </c>
     </row>
@@ -11573,7 +11745,7 @@
         <v>2</v>
       </c>
       <c r="D308" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C308)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11585,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C309)</f>
         <v>0</v>
       </c>
     </row>
@@ -11597,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C310)</f>
         <v>0</v>
       </c>
     </row>
@@ -11609,7 +11781,7 @@
         <v>2</v>
       </c>
       <c r="D311" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C311)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11621,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="D312" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C312)</f>
         <v>0</v>
       </c>
     </row>
@@ -11633,7 +11805,7 @@
         <v>2</v>
       </c>
       <c r="D313" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C313)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11645,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C314)</f>
         <v>0</v>
       </c>
     </row>
@@ -11657,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="D315" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C315)</f>
         <v>0</v>
       </c>
     </row>
@@ -11669,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="D316" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C316)</f>
         <v>0</v>
       </c>
     </row>
@@ -11681,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C317)</f>
         <v>0</v>
       </c>
     </row>
@@ -11693,7 +11865,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C318)</f>
         <v>1.6094379124341003</v>
       </c>
     </row>
@@ -11705,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="D319" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C319)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11717,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C320)</f>
         <v>0</v>
       </c>
     </row>
@@ -11729,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C321)</f>
         <v>0</v>
       </c>
     </row>
@@ -11741,7 +11913,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C322)</f>
         <v>0</v>
       </c>
     </row>
@@ -11753,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C323)</f>
         <v>0</v>
       </c>
     </row>
@@ -11765,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="4">
-        <f t="shared" si="5"/>
+        <f>LN(C324)</f>
         <v>0</v>
       </c>
     </row>
@@ -11777,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="4">
-        <f t="shared" ref="D325:D388" si="6">LN(C325)</f>
+        <f>LN(C325)</f>
         <v>0</v>
       </c>
     </row>
@@ -11789,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C326)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -11801,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C327)</f>
         <v>0</v>
       </c>
     </row>
@@ -11813,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C328)</f>
         <v>0</v>
       </c>
     </row>
@@ -11825,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C329)</f>
         <v>0</v>
       </c>
     </row>
@@ -11837,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C330)</f>
         <v>0</v>
       </c>
     </row>
@@ -11849,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C331)</f>
         <v>0</v>
       </c>
     </row>
@@ -11861,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C332)</f>
         <v>0</v>
       </c>
     </row>
@@ -11873,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C333)</f>
         <v>0</v>
       </c>
     </row>
@@ -11885,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C334)</f>
         <v>0</v>
       </c>
     </row>
@@ -11897,7 +12069,7 @@
         <v>2</v>
       </c>
       <c r="D335" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C335)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11909,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="D336" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C336)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -11921,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C337)</f>
         <v>0</v>
       </c>
     </row>
@@ -11933,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="D338" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C338)</f>
         <v>1.3862943611198906</v>
       </c>
     </row>
@@ -11945,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C339)</f>
         <v>0</v>
       </c>
     </row>
@@ -11957,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C340)</f>
         <v>0</v>
       </c>
     </row>
@@ -11969,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C341)</f>
         <v>0</v>
       </c>
     </row>
@@ -11981,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="D342" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C342)</f>
         <v>0</v>
       </c>
     </row>
@@ -11993,7 +12165,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C343)</f>
         <v>0</v>
       </c>
     </row>
@@ -12005,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="D344" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C344)</f>
         <v>0</v>
       </c>
     </row>
@@ -12017,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C345)</f>
         <v>0</v>
       </c>
     </row>
@@ -12029,7 +12201,7 @@
         <v>3</v>
       </c>
       <c r="D346" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C346)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -12041,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C347)</f>
         <v>0</v>
       </c>
     </row>
@@ -12053,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="D348" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C348)</f>
         <v>0</v>
       </c>
     </row>
@@ -12065,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C349)</f>
         <v>0</v>
       </c>
     </row>
@@ -12077,7 +12249,7 @@
         <v>3</v>
       </c>
       <c r="D350" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C350)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -12089,7 +12261,7 @@
         <v>3</v>
       </c>
       <c r="D351" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C351)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -12101,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="D352" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C352)</f>
         <v>0</v>
       </c>
     </row>
@@ -12113,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C353)</f>
         <v>0</v>
       </c>
     </row>
@@ -12125,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C354)</f>
         <v>0</v>
       </c>
     </row>
@@ -12137,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C355)</f>
         <v>0</v>
       </c>
     </row>
@@ -12149,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C356)</f>
         <v>0</v>
       </c>
     </row>
@@ -12161,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C357)</f>
         <v>0</v>
       </c>
     </row>
@@ -12173,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C358)</f>
         <v>0</v>
       </c>
     </row>
@@ -12185,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C359)</f>
         <v>0</v>
       </c>
     </row>
@@ -12197,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C360)</f>
         <v>0</v>
       </c>
     </row>
@@ -12209,7 +12381,7 @@
         <v>3</v>
       </c>
       <c r="D361" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C361)</f>
         <v>1.0986122886681098</v>
       </c>
     </row>
@@ -12221,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C362)</f>
         <v>0</v>
       </c>
     </row>
@@ -12233,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C363)</f>
         <v>0</v>
       </c>
     </row>
@@ -12245,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C364)</f>
         <v>0</v>
       </c>
     </row>
@@ -12257,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C365)</f>
         <v>0</v>
       </c>
     </row>
@@ -12269,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="D366" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C366)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -12281,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C367)</f>
         <v>0</v>
       </c>
     </row>
@@ -12293,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C368)</f>
         <v>0</v>
       </c>
     </row>
@@ -12305,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C369)</f>
         <v>0</v>
       </c>
     </row>
@@ -12317,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C370)</f>
         <v>0</v>
       </c>
     </row>
@@ -12329,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="D371" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C371)</f>
         <v>0</v>
       </c>
     </row>
@@ -12341,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C372)</f>
         <v>0</v>
       </c>
     </row>
@@ -12353,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C373)</f>
         <v>0</v>
       </c>
     </row>
@@ -12365,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C374)</f>
         <v>0</v>
       </c>
     </row>
@@ -12377,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C375)</f>
         <v>0</v>
       </c>
     </row>
@@ -12389,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C376)</f>
         <v>0</v>
       </c>
     </row>
@@ -12401,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="D377" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C377)</f>
         <v>0</v>
       </c>
     </row>
@@ -12413,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C378)</f>
         <v>0</v>
       </c>
     </row>
@@ -12425,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C379)</f>
         <v>0</v>
       </c>
     </row>
@@ -12437,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="D380" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C380)</f>
         <v>0</v>
       </c>
     </row>
@@ -12449,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C381)</f>
         <v>0</v>
       </c>
     </row>
@@ -12461,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C382)</f>
         <v>0</v>
       </c>
     </row>
@@ -12473,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C383)</f>
         <v>0</v>
       </c>
     </row>
@@ -12485,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C384)</f>
         <v>0</v>
       </c>
     </row>
@@ -12497,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C385)</f>
         <v>0</v>
       </c>
     </row>
@@ -12509,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12521,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C387)</f>
         <v>0</v>
       </c>
     </row>
@@ -12533,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="4">
-        <f t="shared" si="6"/>
+        <f>LN(C388)</f>
         <v>0</v>
       </c>
     </row>
@@ -12545,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="4">
-        <f t="shared" ref="D389:D450" si="7">LN(C389)</f>
+        <f>LN(C389)</f>
         <v>0</v>
       </c>
     </row>
@@ -12557,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C390)</f>
         <v>0</v>
       </c>
     </row>
@@ -12569,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C391)</f>
         <v>0</v>
       </c>
     </row>
@@ -12581,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C392)</f>
         <v>0</v>
       </c>
     </row>
@@ -12593,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C393)</f>
         <v>0</v>
       </c>
     </row>
@@ -12605,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C394)</f>
         <v>0</v>
       </c>
     </row>
@@ -12617,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C395)</f>
         <v>0</v>
       </c>
     </row>
@@ -12629,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C396)</f>
         <v>0</v>
       </c>
     </row>
@@ -12641,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C397)</f>
         <v>0</v>
       </c>
     </row>
@@ -12653,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C398)</f>
         <v>0</v>
       </c>
     </row>
@@ -12665,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C399)</f>
         <v>0</v>
       </c>
     </row>
@@ -12677,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C400)</f>
         <v>0</v>
       </c>
     </row>
@@ -12689,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C401)</f>
         <v>0</v>
       </c>
     </row>
@@ -12701,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C402)</f>
         <v>0</v>
       </c>
     </row>
@@ -12713,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C403)</f>
         <v>0</v>
       </c>
     </row>
@@ -12725,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C404)</f>
         <v>0</v>
       </c>
     </row>
@@ -12737,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C405)</f>
         <v>0</v>
       </c>
     </row>
@@ -12749,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C406)</f>
         <v>0</v>
       </c>
     </row>
@@ -12761,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C407)</f>
         <v>0</v>
       </c>
     </row>
@@ -12773,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C408)</f>
         <v>0</v>
       </c>
     </row>
@@ -12785,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C409)</f>
         <v>0</v>
       </c>
     </row>
@@ -12797,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C410)</f>
         <v>0</v>
       </c>
     </row>
@@ -12809,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C411)</f>
         <v>0</v>
       </c>
     </row>
@@ -12821,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C412)</f>
         <v>0</v>
       </c>
     </row>
@@ -12833,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C413)</f>
         <v>0</v>
       </c>
     </row>
@@ -12845,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C414)</f>
         <v>0</v>
       </c>
     </row>
@@ -12857,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C415)</f>
         <v>0</v>
       </c>
     </row>
@@ -12869,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C416)</f>
         <v>0</v>
       </c>
     </row>
@@ -12881,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C417)</f>
         <v>0</v>
       </c>
     </row>
@@ -12893,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C418)</f>
         <v>0</v>
       </c>
     </row>
@@ -12905,7 +13077,7 @@
         <v>2</v>
       </c>
       <c r="D419" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C419)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -12917,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C420)</f>
         <v>0</v>
       </c>
     </row>
@@ -12929,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C421)</f>
         <v>0</v>
       </c>
     </row>
@@ -12941,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C422)</f>
         <v>0</v>
       </c>
     </row>
@@ -12953,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="D423" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C423)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -12965,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C424)</f>
         <v>0</v>
       </c>
     </row>
@@ -12977,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="D425" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C425)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -12989,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C426)</f>
         <v>0</v>
       </c>
     </row>
@@ -13001,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C427)</f>
         <v>0</v>
       </c>
     </row>
@@ -13013,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C428)</f>
         <v>0</v>
       </c>
     </row>
@@ -13025,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C429)</f>
         <v>0</v>
       </c>
     </row>
@@ -13037,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C430)</f>
         <v>0</v>
       </c>
     </row>
@@ -13049,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C431)</f>
         <v>0</v>
       </c>
     </row>
@@ -13061,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C432)</f>
         <v>0</v>
       </c>
     </row>
@@ -13073,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C433)</f>
         <v>0</v>
       </c>
     </row>
@@ -13085,7 +13257,7 @@
         <v>2</v>
       </c>
       <c r="D434" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C434)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -13097,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C435)</f>
         <v>0</v>
       </c>
     </row>
@@ -13109,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C436)</f>
         <v>0</v>
       </c>
     </row>
@@ -13121,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C437)</f>
         <v>0</v>
       </c>
     </row>
@@ -13133,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C438)</f>
         <v>0</v>
       </c>
     </row>
@@ -13145,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C439)</f>
         <v>0</v>
       </c>
     </row>
@@ -13157,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C440)</f>
         <v>0</v>
       </c>
     </row>
@@ -13169,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C441)</f>
         <v>0.69314718055994529</v>
       </c>
     </row>
@@ -13181,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C442)</f>
         <v>0</v>
       </c>
     </row>
@@ -13193,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="D443" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C443)</f>
         <v>0</v>
       </c>
     </row>
@@ -13205,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="D444" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C444)</f>
         <v>0</v>
       </c>
     </row>
@@ -13217,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="D445" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C445)</f>
         <v>0</v>
       </c>
     </row>
@@ -13229,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="D446" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C446)</f>
         <v>0</v>
       </c>
     </row>
@@ -13241,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="D447" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C447)</f>
         <v>0</v>
       </c>
     </row>
@@ -13253,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="D448" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C448)</f>
         <v>0</v>
       </c>
     </row>
@@ -13265,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="D449" s="4">
-        <f t="shared" si="7"/>
+        <f>LN(C449)</f>
         <v>0</v>
       </c>
     </row>
@@ -13277,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="D450" s="5">
-        <f t="shared" si="7"/>
+        <f>LN(C450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13288,12 +13460,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:E451">
-    <sortCondition ref="D3:D451"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D450">
+    <sortCondition ref="B4:B450"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
